--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.0791613398861</v>
+        <v>18.07916133988622</v>
       </c>
       <c r="C2">
-        <v>11.98253447296562</v>
+        <v>11.98253447296561</v>
       </c>
       <c r="D2">
-        <v>7.219773152238226</v>
+        <v>7.219773152238164</v>
       </c>
       <c r="E2">
-        <v>12.69215382506759</v>
+        <v>12.69215382506757</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.79148855573305</v>
+        <v>63.7914885557332</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.92201055911007</v>
+        <v>15.92201055911015</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.94358627444552</v>
+        <v>16.94358627444554</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.66870433659783</v>
+        <v>16.66870433659775</v>
       </c>
       <c r="C3">
-        <v>11.03366806066826</v>
+        <v>11.03366806066839</v>
       </c>
       <c r="D3">
-        <v>6.683699464305602</v>
+        <v>6.683699464305584</v>
       </c>
       <c r="E3">
-        <v>11.89789725066279</v>
+        <v>11.89789725066278</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.75468406742132</v>
+        <v>59.754684067421</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.70164006032844</v>
+        <v>14.70164006032834</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.68943347588034</v>
+        <v>15.68943347588031</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77116470849874</v>
+        <v>15.77116470849876</v>
       </c>
       <c r="C4">
-        <v>10.43298856649164</v>
+        <v>10.43298856649181</v>
       </c>
       <c r="D4">
-        <v>6.34070520009598</v>
+        <v>6.340705200096089</v>
       </c>
       <c r="E4">
-        <v>11.3987660846069</v>
+        <v>11.39876608460691</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.20398402802486</v>
+        <v>57.2039840280245</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.92510796530826</v>
+        <v>13.92510796530831</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.88932788466595</v>
+        <v>14.88932788466602</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39707005784381</v>
+        <v>15.39707005784364</v>
       </c>
       <c r="C5">
-        <v>10.18328632313336</v>
+        <v>10.18328632313316</v>
       </c>
       <c r="D5">
-        <v>6.206438408624377</v>
+        <v>6.206438408624331</v>
       </c>
       <c r="E5">
-        <v>11.1924678460406</v>
+        <v>11.19246784604049</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.14604018895275</v>
+        <v>56.14604018895232</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.60141459874217</v>
+        <v>13.60141459874194</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.5553561828539</v>
+        <v>14.5553561828538</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.33443717855323</v>
+        <v>15.33443717855329</v>
       </c>
       <c r="C6">
-        <v>10.14151611594701</v>
+        <v>10.14151611594703</v>
       </c>
       <c r="D6">
-        <v>6.186238827611936</v>
+        <v>6.186238827611883</v>
       </c>
       <c r="E6">
-        <v>11.15803778628903</v>
+        <v>11.158037786289</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.96924503835587</v>
+        <v>55.96924503835597</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.54721668755544</v>
+        <v>13.54721668755552</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.49941208220596</v>
+        <v>14.49941208220598</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.76615381222406</v>
+        <v>15.76615381222397</v>
       </c>
       <c r="C7">
-        <v>10.42964138239789</v>
+        <v>10.42964138239793</v>
       </c>
       <c r="D7">
-        <v>6.338786176488756</v>
+        <v>6.338786176488785</v>
       </c>
       <c r="E7">
-        <v>11.39599558857176</v>
+        <v>11.39599558857172</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.18979150555611</v>
+        <v>57.18979150555571</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.92077238168561</v>
+        <v>13.92077238168551</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.88485635423137</v>
+        <v>14.88485635423136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59910659547765</v>
+        <v>17.59910659547769</v>
       </c>
       <c r="C8">
-        <v>11.65887457417178</v>
+        <v>11.65887457417192</v>
       </c>
       <c r="D8">
-        <v>7.0377187053814</v>
+        <v>7.037718705381457</v>
       </c>
       <c r="E8">
         <v>12.42064131021201</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.41424359878256</v>
+        <v>62.41424359878223</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.50661632040523</v>
+        <v>15.50661632040519</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.51715673721225</v>
+        <v>16.51715673721227</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.96594490217357</v>
+        <v>20.96594490217356</v>
       </c>
       <c r="C9">
-        <v>13.94591219978027</v>
+        <v>13.94591219978019</v>
       </c>
       <c r="D9">
-        <v>8.305788150894685</v>
+        <v>8.3057881508948</v>
       </c>
       <c r="E9">
         <v>14.34340064065993</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.11999788292356</v>
+        <v>72.11999788292299</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.42183791254188</v>
+        <v>18.42183791254178</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.49896170682882</v>
+        <v>19.49896170682878</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.33937678545866</v>
+        <v>23.33937678545887</v>
       </c>
       <c r="C10">
-        <v>15.58467594147761</v>
+        <v>15.58467594147782</v>
       </c>
       <c r="D10">
-        <v>9.187122173467742</v>
+        <v>9.187122173467875</v>
       </c>
       <c r="E10">
-        <v>15.71493933877102</v>
+        <v>15.71493933877101</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.99249953225988</v>
+        <v>78.99249953226021</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.48104728540265</v>
+        <v>20.48104728540285</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.58869069760788</v>
+        <v>21.58869069760795</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.40872085114632</v>
+        <v>24.40872085114639</v>
       </c>
       <c r="C11">
-        <v>16.33106934856943</v>
+        <v>16.33106934856967</v>
       </c>
       <c r="D11">
-        <v>9.580641392233268</v>
+        <v>9.580641392233298</v>
       </c>
       <c r="E11">
-        <v>16.33441309269052</v>
+        <v>16.33441309269059</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.08708868494271</v>
+        <v>82.08708868494311</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.41039163361441</v>
+        <v>21.41039163361456</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.52690528017293</v>
+        <v>22.52690528017304</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.81340906245143</v>
+        <v>24.81340906245159</v>
       </c>
       <c r="C12">
-        <v>16.61492308385419</v>
+        <v>16.61492308385417</v>
       </c>
       <c r="D12">
-        <v>9.728969589355298</v>
+        <v>9.728969589355394</v>
       </c>
       <c r="E12">
-        <v>16.56888996464233</v>
+        <v>16.56888996464242</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.25717653808879</v>
+        <v>83.25717653809048</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.76238862421772</v>
+        <v>21.76238862421785</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.88142701236976</v>
+        <v>22.88142701236983</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.72624016405742</v>
+        <v>24.72624016405747</v>
       </c>
       <c r="C13">
-        <v>16.5537160590984</v>
+        <v>16.55371605909852</v>
       </c>
       <c r="D13">
-        <v>9.697048122942046</v>
+        <v>9.697048122941981</v>
       </c>
       <c r="E13">
-        <v>16.51838549165577</v>
+        <v>16.51838549165579</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.00520235690975</v>
+        <v>83.00520235690966</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.6865552119726</v>
+        <v>21.68655521197267</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.80508909001817</v>
+        <v>22.80508909001821</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.44201157145878</v>
+        <v>24.44201157145863</v>
       </c>
       <c r="C14">
-        <v>16.35439072889881</v>
+        <v>16.35439072889847</v>
       </c>
       <c r="D14">
-        <v>9.592855771159204</v>
+        <v>9.592855771159135</v>
       </c>
       <c r="E14">
         <v>16.35370207836313</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.18336897839556</v>
+        <v>82.18336897839454</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.43934159757467</v>
+        <v>21.43934159757448</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.55608043328386</v>
+        <v>22.5560804332838</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.26792296067064</v>
+        <v>24.26792296067069</v>
       </c>
       <c r="C15">
-        <v>16.23249259451958</v>
+        <v>16.23249259451945</v>
       </c>
       <c r="D15">
-        <v>9.528957918425727</v>
+        <v>9.528957918425769</v>
       </c>
       <c r="E15">
-        <v>16.25283383474839</v>
+        <v>16.25283383474842</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.67983911409542</v>
+        <v>81.67983911409506</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.28796445839255</v>
+        <v>21.28796445839252</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.40349126051476</v>
+        <v>22.40349126051471</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.26938356484597</v>
+        <v>23.26938356484608</v>
       </c>
       <c r="C16">
-        <v>15.53600205796794</v>
+        <v>15.53600205796798</v>
       </c>
       <c r="D16">
-        <v>9.161285918508835</v>
+        <v>9.16128591850898</v>
       </c>
       <c r="E16">
-        <v>15.67440791094418</v>
+        <v>15.67440791094426</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.78984374183833</v>
+        <v>78.78984374183906</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.42025467676477</v>
+        <v>20.42025467676484</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.52720848670388</v>
+        <v>21.527208486704</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>22.65495319421439</v>
       </c>
       <c r="C17">
-        <v>15.10964976128409</v>
+        <v>15.10964976128422</v>
       </c>
       <c r="D17">
-        <v>8.934075594000014</v>
+        <v>8.934075593999976</v>
       </c>
       <c r="E17">
-        <v>15.31875550841128</v>
+        <v>15.31875550841123</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.01054990977352</v>
+        <v>77.01054990977325</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.88677485765448</v>
+        <v>19.88677485765455</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.3004864597646</v>
+        <v>22.30048645976444</v>
       </c>
       <c r="C18">
-        <v>14.86443118731689</v>
+        <v>14.86443118731677</v>
       </c>
       <c r="D18">
-        <v>8.802666444154701</v>
+        <v>8.80266644415453</v>
       </c>
       <c r="E18">
-        <v>15.11373481538075</v>
+        <v>15.11373481538068</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.98395144379541</v>
+        <v>75.98395144379415</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.57915295710265</v>
+        <v>19.5791529571025</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.67522308887811</v>
+        <v>20.67522308887795</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18025461841394</v>
+        <v>22.18025461841403</v>
       </c>
       <c r="C19">
-        <v>14.78137701687448</v>
+        <v>14.78137701687458</v>
       </c>
       <c r="D19">
-        <v>8.758039184268464</v>
+        <v>8.758039184268522</v>
       </c>
       <c r="E19">
-        <v>15.04422576087275</v>
+        <v>15.04422576087279</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.63574097049145</v>
+        <v>75.63574097049181</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.47483339303979</v>
+        <v>19.4748333930399</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.56938164100804</v>
+        <v>20.5693816410081</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.7204623174988</v>
+        <v>22.72046231749877</v>
       </c>
       <c r="C20">
-        <v>15.15502787679355</v>
+        <v>15.15502787679344</v>
       </c>
       <c r="D20">
-        <v>8.958334984576442</v>
+        <v>8.958334984576483</v>
       </c>
       <c r="E20">
-        <v>15.3566594331897</v>
+        <v>15.35665943318972</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.20027170087756</v>
+        <v>77.20027170087779</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.94363787680429</v>
+        <v>19.94363787680426</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.04472943819348</v>
+        <v>21.04472943819346</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.52549172621154</v>
+        <v>24.52549172621161</v>
       </c>
       <c r="C21">
-        <v>16.41289456868265</v>
+        <v>16.41289456868251</v>
       </c>
       <c r="D21">
-        <v>9.623474838603055</v>
+        <v>9.623474838603068</v>
       </c>
       <c r="E21">
-        <v>16.40207132791756</v>
+        <v>16.40207132791758</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.42478294217965</v>
+        <v>82.42478294217953</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.70455448751304</v>
+        <v>25.70455448751305</v>
       </c>
       <c r="C22">
-        <v>17.24276085303605</v>
+        <v>17.24276085303595</v>
       </c>
       <c r="D22">
-        <v>10.05441322914244</v>
+        <v>10.05441322914233</v>
       </c>
       <c r="E22">
         <v>17.10540821696822</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.8309457669595</v>
+        <v>85.83094576696004</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.5381091983731</v>
+        <v>22.53810919837312</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.66104606314984</v>
+        <v>23.66104606314988</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.07482703973719</v>
+        <v>25.0748270397372</v>
       </c>
       <c r="C23">
-        <v>16.79869995150261</v>
+        <v>16.79869995150251</v>
       </c>
       <c r="D23">
-        <v>9.824608434740503</v>
+        <v>9.824608434740464</v>
       </c>
       <c r="E23">
-        <v>16.72034291805248</v>
+        <v>16.72034291805253</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.01262742216221</v>
+        <v>84.01262742216223</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.98985893530984</v>
+        <v>21.9898589353098</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.11027978435558</v>
+        <v>23.11027978435564</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.69084953984867</v>
+        <v>22.69084953984848</v>
       </c>
       <c r="C24">
-        <v>15.13451282911675</v>
+        <v>15.134512829117</v>
       </c>
       <c r="D24">
-        <v>8.947369779769966</v>
+        <v>8.947369779769913</v>
       </c>
       <c r="E24">
-        <v>15.33952482434231</v>
+        <v>15.3395248243423</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.11451007542198</v>
+        <v>77.11451007542195</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.91793304481956</v>
+        <v>19.9179330448195</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.07596338414389</v>
+        <v>20.07596338414391</v>
       </c>
       <c r="C25">
-        <v>13.3373275801781</v>
+        <v>13.33732758017795</v>
       </c>
       <c r="D25">
-        <v>7.972589440628902</v>
+        <v>7.972589440628966</v>
       </c>
       <c r="E25">
-        <v>13.83161532152531</v>
+        <v>13.83161532152533</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.54621107514127</v>
+        <v>69.5462110751411</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.65070858106544</v>
+        <v>17.6507085810655</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.71276171599248</v>
+        <v>18.71276171599249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.07916133988622</v>
+        <v>18.0791613398861</v>
       </c>
       <c r="C2">
-        <v>11.98253447296561</v>
+        <v>11.98253447296562</v>
       </c>
       <c r="D2">
-        <v>7.219773152238164</v>
+        <v>7.219773152238226</v>
       </c>
       <c r="E2">
-        <v>12.69215382506757</v>
+        <v>12.69215382506759</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.7914885557332</v>
+        <v>63.79148855573305</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.92201055911015</v>
+        <v>15.92201055911007</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.94358627444554</v>
+        <v>16.94358627444552</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.66870433659775</v>
+        <v>16.66870433659783</v>
       </c>
       <c r="C3">
-        <v>11.03366806066839</v>
+        <v>11.03366806066826</v>
       </c>
       <c r="D3">
-        <v>6.683699464305584</v>
+        <v>6.683699464305602</v>
       </c>
       <c r="E3">
-        <v>11.89789725066278</v>
+        <v>11.89789725066279</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.754684067421</v>
+        <v>59.75468406742132</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.70164006032834</v>
+        <v>14.70164006032844</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.68943347588031</v>
+        <v>15.68943347588034</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77116470849876</v>
+        <v>15.77116470849874</v>
       </c>
       <c r="C4">
-        <v>10.43298856649181</v>
+        <v>10.43298856649164</v>
       </c>
       <c r="D4">
-        <v>6.340705200096089</v>
+        <v>6.34070520009598</v>
       </c>
       <c r="E4">
-        <v>11.39876608460691</v>
+        <v>11.3987660846069</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.2039840280245</v>
+        <v>57.20398402802486</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.92510796530831</v>
+        <v>13.92510796530826</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.88932788466602</v>
+        <v>14.88932788466595</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39707005784364</v>
+        <v>15.39707005784381</v>
       </c>
       <c r="C5">
-        <v>10.18328632313316</v>
+        <v>10.18328632313336</v>
       </c>
       <c r="D5">
-        <v>6.206438408624331</v>
+        <v>6.206438408624377</v>
       </c>
       <c r="E5">
-        <v>11.19246784604049</v>
+        <v>11.1924678460406</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.14604018895232</v>
+        <v>56.14604018895275</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.60141459874194</v>
+        <v>13.60141459874217</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.5553561828538</v>
+        <v>14.5553561828539</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.33443717855329</v>
+        <v>15.33443717855323</v>
       </c>
       <c r="C6">
-        <v>10.14151611594703</v>
+        <v>10.14151611594701</v>
       </c>
       <c r="D6">
-        <v>6.186238827611883</v>
+        <v>6.186238827611936</v>
       </c>
       <c r="E6">
-        <v>11.158037786289</v>
+        <v>11.15803778628903</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.96924503835597</v>
+        <v>55.96924503835587</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.54721668755552</v>
+        <v>13.54721668755544</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.49941208220598</v>
+        <v>14.49941208220596</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.76615381222397</v>
+        <v>15.76615381222406</v>
       </c>
       <c r="C7">
-        <v>10.42964138239793</v>
+        <v>10.42964138239789</v>
       </c>
       <c r="D7">
-        <v>6.338786176488785</v>
+        <v>6.338786176488756</v>
       </c>
       <c r="E7">
-        <v>11.39599558857172</v>
+        <v>11.39599558857176</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.18979150555571</v>
+        <v>57.18979150555611</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.92077238168551</v>
+        <v>13.92077238168561</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.88485635423136</v>
+        <v>14.88485635423137</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59910659547769</v>
+        <v>17.59910659547765</v>
       </c>
       <c r="C8">
-        <v>11.65887457417192</v>
+        <v>11.65887457417178</v>
       </c>
       <c r="D8">
-        <v>7.037718705381457</v>
+        <v>7.0377187053814</v>
       </c>
       <c r="E8">
         <v>12.42064131021201</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.41424359878223</v>
+        <v>62.41424359878256</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.50661632040519</v>
+        <v>15.50661632040523</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.51715673721227</v>
+        <v>16.51715673721225</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.96594490217356</v>
+        <v>20.96594490217357</v>
       </c>
       <c r="C9">
-        <v>13.94591219978019</v>
+        <v>13.94591219978027</v>
       </c>
       <c r="D9">
-        <v>8.3057881508948</v>
+        <v>8.305788150894685</v>
       </c>
       <c r="E9">
         <v>14.34340064065993</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.11999788292299</v>
+        <v>72.11999788292356</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.42183791254178</v>
+        <v>18.42183791254188</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.49896170682878</v>
+        <v>19.49896170682882</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.33937678545887</v>
+        <v>23.33937678545866</v>
       </c>
       <c r="C10">
-        <v>15.58467594147782</v>
+        <v>15.58467594147761</v>
       </c>
       <c r="D10">
-        <v>9.187122173467875</v>
+        <v>9.187122173467742</v>
       </c>
       <c r="E10">
-        <v>15.71493933877101</v>
+        <v>15.71493933877102</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.99249953226021</v>
+        <v>78.99249953225988</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.48104728540285</v>
+        <v>20.48104728540265</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.58869069760795</v>
+        <v>21.58869069760788</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.40872085114639</v>
+        <v>24.40872085114632</v>
       </c>
       <c r="C11">
-        <v>16.33106934856967</v>
+        <v>16.33106934856943</v>
       </c>
       <c r="D11">
-        <v>9.580641392233298</v>
+        <v>9.580641392233268</v>
       </c>
       <c r="E11">
-        <v>16.33441309269059</v>
+        <v>16.33441309269052</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.08708868494311</v>
+        <v>82.08708868494271</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.41039163361456</v>
+        <v>21.41039163361441</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.52690528017304</v>
+        <v>22.52690528017293</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.81340906245159</v>
+        <v>24.81340906245143</v>
       </c>
       <c r="C12">
-        <v>16.61492308385417</v>
+        <v>16.61492308385419</v>
       </c>
       <c r="D12">
-        <v>9.728969589355394</v>
+        <v>9.728969589355298</v>
       </c>
       <c r="E12">
-        <v>16.56888996464242</v>
+        <v>16.56888996464233</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.25717653809048</v>
+        <v>83.25717653808879</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.76238862421785</v>
+        <v>21.76238862421772</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.88142701236983</v>
+        <v>22.88142701236976</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.72624016405747</v>
+        <v>24.72624016405742</v>
       </c>
       <c r="C13">
-        <v>16.55371605909852</v>
+        <v>16.5537160590984</v>
       </c>
       <c r="D13">
-        <v>9.697048122941981</v>
+        <v>9.697048122942046</v>
       </c>
       <c r="E13">
-        <v>16.51838549165579</v>
+        <v>16.51838549165577</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.00520235690966</v>
+        <v>83.00520235690975</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.68655521197267</v>
+        <v>21.6865552119726</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.80508909001821</v>
+        <v>22.80508909001817</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.44201157145863</v>
+        <v>24.44201157145878</v>
       </c>
       <c r="C14">
-        <v>16.35439072889847</v>
+        <v>16.35439072889881</v>
       </c>
       <c r="D14">
-        <v>9.592855771159135</v>
+        <v>9.592855771159204</v>
       </c>
       <c r="E14">
         <v>16.35370207836313</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.18336897839454</v>
+        <v>82.18336897839556</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.43934159757448</v>
+        <v>21.43934159757467</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.5560804332838</v>
+        <v>22.55608043328386</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.26792296067069</v>
+        <v>24.26792296067064</v>
       </c>
       <c r="C15">
-        <v>16.23249259451945</v>
+        <v>16.23249259451958</v>
       </c>
       <c r="D15">
-        <v>9.528957918425769</v>
+        <v>9.528957918425727</v>
       </c>
       <c r="E15">
-        <v>16.25283383474842</v>
+        <v>16.25283383474839</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.67983911409506</v>
+        <v>81.67983911409542</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.28796445839252</v>
+        <v>21.28796445839255</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.40349126051471</v>
+        <v>22.40349126051476</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.26938356484608</v>
+        <v>23.26938356484597</v>
       </c>
       <c r="C16">
-        <v>15.53600205796798</v>
+        <v>15.53600205796794</v>
       </c>
       <c r="D16">
-        <v>9.16128591850898</v>
+        <v>9.161285918508835</v>
       </c>
       <c r="E16">
-        <v>15.67440791094426</v>
+        <v>15.67440791094418</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.78984374183906</v>
+        <v>78.78984374183833</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.42025467676484</v>
+        <v>20.42025467676477</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.527208486704</v>
+        <v>21.52720848670388</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>22.65495319421439</v>
       </c>
       <c r="C17">
-        <v>15.10964976128422</v>
+        <v>15.10964976128409</v>
       </c>
       <c r="D17">
-        <v>8.934075593999976</v>
+        <v>8.934075594000014</v>
       </c>
       <c r="E17">
-        <v>15.31875550841123</v>
+        <v>15.31875550841128</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.01054990977325</v>
+        <v>77.01054990977352</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.88677485765455</v>
+        <v>19.88677485765448</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.30048645976444</v>
+        <v>22.3004864597646</v>
       </c>
       <c r="C18">
-        <v>14.86443118731677</v>
+        <v>14.86443118731689</v>
       </c>
       <c r="D18">
-        <v>8.80266644415453</v>
+        <v>8.802666444154701</v>
       </c>
       <c r="E18">
-        <v>15.11373481538068</v>
+        <v>15.11373481538075</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.98395144379415</v>
+        <v>75.98395144379541</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.5791529571025</v>
+        <v>19.57915295710265</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.67522308887795</v>
+        <v>20.67522308887811</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18025461841403</v>
+        <v>22.18025461841394</v>
       </c>
       <c r="C19">
-        <v>14.78137701687458</v>
+        <v>14.78137701687448</v>
       </c>
       <c r="D19">
-        <v>8.758039184268522</v>
+        <v>8.758039184268464</v>
       </c>
       <c r="E19">
-        <v>15.04422576087279</v>
+        <v>15.04422576087275</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.63574097049181</v>
+        <v>75.63574097049145</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.4748333930399</v>
+        <v>19.47483339303979</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.5693816410081</v>
+        <v>20.56938164100804</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.72046231749877</v>
+        <v>22.7204623174988</v>
       </c>
       <c r="C20">
-        <v>15.15502787679344</v>
+        <v>15.15502787679355</v>
       </c>
       <c r="D20">
-        <v>8.958334984576483</v>
+        <v>8.958334984576442</v>
       </c>
       <c r="E20">
-        <v>15.35665943318972</v>
+        <v>15.3566594331897</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.20027170087779</v>
+        <v>77.20027170087756</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.94363787680426</v>
+        <v>19.94363787680429</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.04472943819346</v>
+        <v>21.04472943819348</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.52549172621161</v>
+        <v>24.52549172621154</v>
       </c>
       <c r="C21">
-        <v>16.41289456868251</v>
+        <v>16.41289456868265</v>
       </c>
       <c r="D21">
-        <v>9.623474838603068</v>
+        <v>9.623474838603055</v>
       </c>
       <c r="E21">
-        <v>16.40207132791758</v>
+        <v>16.40207132791756</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.42478294217953</v>
+        <v>82.42478294217965</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.70455448751305</v>
+        <v>25.70455448751304</v>
       </c>
       <c r="C22">
-        <v>17.24276085303595</v>
+        <v>17.24276085303605</v>
       </c>
       <c r="D22">
-        <v>10.05441322914233</v>
+        <v>10.05441322914244</v>
       </c>
       <c r="E22">
         <v>17.10540821696822</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.83094576696004</v>
+        <v>85.8309457669595</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.53810919837312</v>
+        <v>22.5381091983731</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.66104606314988</v>
+        <v>23.66104606314984</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.0748270397372</v>
+        <v>25.07482703973719</v>
       </c>
       <c r="C23">
-        <v>16.79869995150251</v>
+        <v>16.79869995150261</v>
       </c>
       <c r="D23">
-        <v>9.824608434740464</v>
+        <v>9.824608434740503</v>
       </c>
       <c r="E23">
-        <v>16.72034291805253</v>
+        <v>16.72034291805248</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.01262742216223</v>
+        <v>84.01262742216221</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.9898589353098</v>
+        <v>21.98985893530984</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.11027978435564</v>
+        <v>23.11027978435558</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.69084953984848</v>
+        <v>22.69084953984867</v>
       </c>
       <c r="C24">
-        <v>15.134512829117</v>
+        <v>15.13451282911675</v>
       </c>
       <c r="D24">
-        <v>8.947369779769913</v>
+        <v>8.947369779769966</v>
       </c>
       <c r="E24">
-        <v>15.3395248243423</v>
+        <v>15.33952482434231</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.11451007542195</v>
+        <v>77.11451007542198</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.9179330448195</v>
+        <v>19.91793304481956</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.07596338414391</v>
+        <v>20.07596338414389</v>
       </c>
       <c r="C25">
-        <v>13.33732758017795</v>
+        <v>13.3373275801781</v>
       </c>
       <c r="D25">
-        <v>7.972589440628966</v>
+        <v>7.972589440628902</v>
       </c>
       <c r="E25">
-        <v>13.83161532152533</v>
+        <v>13.83161532152531</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.5462110751411</v>
+        <v>69.54621107514127</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.6507085810655</v>
+        <v>17.65070858106544</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.71276171599249</v>
+        <v>18.71276171599248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.0791613398861</v>
+        <v>18.07566115007769</v>
       </c>
       <c r="C2">
-        <v>11.98253447296562</v>
+        <v>11.97793045366926</v>
       </c>
       <c r="D2">
-        <v>7.219773152238226</v>
+        <v>7.219288969820774</v>
       </c>
       <c r="E2">
-        <v>12.69215382506759</v>
+        <v>12.69083667509022</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.79148855573305</v>
+        <v>63.07019909160188</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.77853783693911</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.92201055911007</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.91791036388179</v>
       </c>
       <c r="L2">
-        <v>16.94358627444552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>16.94135745740365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.66870433659783</v>
+        <v>16.66612835694187</v>
       </c>
       <c r="C3">
-        <v>11.03366806066826</v>
+        <v>11.03014134328201</v>
       </c>
       <c r="D3">
-        <v>6.683699464305602</v>
+        <v>6.683351896830326</v>
       </c>
       <c r="E3">
-        <v>11.89789725066279</v>
+        <v>11.89681687157657</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.75468406742132</v>
+        <v>58.87494531275468</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.74498139098937</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.70164006032844</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.69851477810185</v>
       </c>
       <c r="L3">
-        <v>15.68943347588034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.68775026214617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77116470849874</v>
+        <v>15.76910728827757</v>
       </c>
       <c r="C4">
-        <v>10.43298856649164</v>
+        <v>10.43008653318917</v>
       </c>
       <c r="D4">
-        <v>6.34070520009598</v>
+        <v>6.34043151740166</v>
       </c>
       <c r="E4">
-        <v>11.3987660846069</v>
+        <v>11.39783229005099</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.20398402802486</v>
+        <v>56.21495028791249</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.19632879626757</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.92510796530826</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.9225443690935</v>
       </c>
       <c r="L4">
-        <v>14.88932788466595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.8879541348684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39707005784381</v>
+        <v>15.39521347433251</v>
       </c>
       <c r="C5">
-        <v>10.18328632313336</v>
+        <v>10.18063154381679</v>
       </c>
       <c r="D5">
-        <v>6.206438408624377</v>
+        <v>6.20626398141668</v>
       </c>
       <c r="E5">
-        <v>11.1924678460406</v>
+        <v>11.19159481378203</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.14604018895275</v>
+        <v>55.10928644900219</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.13923942433111</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.60141459874217</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.599072516169</v>
       </c>
       <c r="L5">
-        <v>14.5553561828539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.55410349019337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.33443717855323</v>
+        <v>15.33261335632204</v>
       </c>
       <c r="C6">
-        <v>10.14151611594701</v>
+        <v>10.13890200197835</v>
       </c>
       <c r="D6">
-        <v>6.186238827611936</v>
+        <v>6.186068232806739</v>
       </c>
       <c r="E6">
-        <v>11.15803778628903</v>
+        <v>11.15717492519091</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.96924503835587</v>
+        <v>54.92437023820113</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.96258756013795</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.54721668755544</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.54491099102395</v>
       </c>
       <c r="L6">
-        <v>14.49941208220596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.49817922147994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.76615381222406</v>
+        <v>15.76409914088421</v>
       </c>
       <c r="C7">
-        <v>10.42964138239789</v>
+        <v>10.42674271092301</v>
       </c>
       <c r="D7">
-        <v>6.338786176488756</v>
+        <v>6.338512879849567</v>
       </c>
       <c r="E7">
-        <v>11.39599558857176</v>
+        <v>11.39506260842171</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.18979150555611</v>
+        <v>56.20012730405301</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.18214770744294</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.92077238168561</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.91821180047744</v>
       </c>
       <c r="L7">
-        <v>14.88485635423137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.88348425586946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59910659547765</v>
+        <v>17.59593645495114</v>
       </c>
       <c r="C8">
-        <v>11.65887457417178</v>
+        <v>11.6546509234732</v>
       </c>
       <c r="D8">
-        <v>7.0377187053814</v>
+        <v>7.037284003367378</v>
       </c>
       <c r="E8">
-        <v>12.42064131021201</v>
+        <v>12.41940601547218</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.41424359878256</v>
+        <v>61.64072002733489</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.40240603251802</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.50661632040523</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.50286119603714</v>
       </c>
       <c r="L8">
-        <v>16.51715673721225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.51512225103971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.96594490217357</v>
+        <v>20.96009013830696</v>
       </c>
       <c r="C9">
-        <v>13.94591219978027</v>
+        <v>13.93868790750232</v>
       </c>
       <c r="D9">
-        <v>8.305788150894685</v>
+        <v>8.30493129436462</v>
       </c>
       <c r="E9">
-        <v>14.34340064065993</v>
+        <v>14.34154282079695</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.11999788292356</v>
+        <v>71.6814634702577</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.10001240792894</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.42183791254188</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.41533845776719</v>
       </c>
       <c r="L9">
-        <v>19.49896170682882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.49534696589194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.33937678545866</v>
+        <v>23.33103626710907</v>
       </c>
       <c r="C10">
-        <v>15.58467594147761</v>
+        <v>15.57479619589519</v>
       </c>
       <c r="D10">
-        <v>9.187122173467742</v>
+        <v>9.185840485618106</v>
       </c>
       <c r="E10">
-        <v>15.71493933877102</v>
+        <v>15.71253483061473</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.99249953225988</v>
+        <v>78.75358681768093</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>78.96598591008842</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.48104728540265</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.47208303277996</v>
       </c>
       <c r="L10">
-        <v>21.58869069760788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.58359490927653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.40872085114632</v>
+        <v>24.39906646018656</v>
       </c>
       <c r="C11">
-        <v>16.33106934856943</v>
+        <v>16.31981549854654</v>
       </c>
       <c r="D11">
-        <v>9.580641392233268</v>
+        <v>9.579124341360236</v>
       </c>
       <c r="E11">
-        <v>16.33441309269052</v>
+        <v>16.33171686533726</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.08708868494271</v>
+        <v>81.93029404101367</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>82.05730606857705</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.41039163361441</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.40014085409775</v>
       </c>
       <c r="L11">
-        <v>22.52690528017293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22.52101593904408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.81340906245143</v>
+        <v>24.80322199661187</v>
       </c>
       <c r="C12">
-        <v>16.61492308385419</v>
+        <v>16.60311671193186</v>
       </c>
       <c r="D12">
-        <v>9.728969589355298</v>
+        <v>9.727355215487352</v>
       </c>
       <c r="E12">
-        <v>16.56888996464233</v>
+        <v>16.56607415103865</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.25717653808879</v>
+        <v>83.13033249944017</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>83.22609157369641</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.76238862421772</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.75161861882855</v>
       </c>
       <c r="L12">
-        <v>22.88142701236976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>22.87521371194424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.72624016405742</v>
+        <v>24.71616955742628</v>
       </c>
       <c r="C13">
-        <v>16.5537160590984</v>
+        <v>16.54203027794593</v>
       </c>
       <c r="D13">
-        <v>9.697048122942046</v>
+        <v>9.695455116750647</v>
       </c>
       <c r="E13">
-        <v>16.51838549165577</v>
+        <v>16.51559589754688</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.00520235690975</v>
+        <v>82.8719572793329</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>82.9744011632296</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.6865552119726</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.67589862065111</v>
       </c>
       <c r="L13">
-        <v>22.80508909001817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>22.79894672784322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.44201157145878</v>
+        <v>24.43231412320725</v>
       </c>
       <c r="C14">
-        <v>16.35439072889881</v>
+        <v>16.3430921254901</v>
       </c>
       <c r="D14">
-        <v>9.592855771159204</v>
+        <v>9.591330892876842</v>
       </c>
       <c r="E14">
-        <v>16.35370207836313</v>
+        <v>16.35099621611795</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.18336897839556</v>
+        <v>82.02906077561268</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>82.15348065732013</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.43934159757467</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.42904880132371</v>
       </c>
       <c r="L14">
-        <v>22.55608043328386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.55016495393869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.26792296067064</v>
+        <v>24.2584491909771</v>
       </c>
       <c r="C15">
-        <v>16.23249259451958</v>
+        <v>16.22142666245324</v>
       </c>
       <c r="D15">
-        <v>9.528957918425727</v>
+        <v>9.52747362595867</v>
       </c>
       <c r="E15">
-        <v>16.25283383474839</v>
+        <v>16.25017796738487</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.67983911409542</v>
+        <v>81.51248291776074</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>81.65050080324009</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.28796445839255</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.2778900280947</v>
       </c>
       <c r="L15">
-        <v>22.40349126051476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>22.39771147462708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.26938356484597</v>
+        <v>23.26112454177565</v>
       </c>
       <c r="C16">
-        <v>15.53600205796794</v>
+        <v>15.52620812444342</v>
       </c>
       <c r="D16">
-        <v>9.161285918508835</v>
+        <v>9.160018598955773</v>
       </c>
       <c r="E16">
-        <v>15.67440791094418</v>
+        <v>15.67202137456009</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.78984374183833</v>
+        <v>78.54539856774714</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>78.76353605654532</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.42025467676477</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.41137053119852</v>
       </c>
       <c r="L16">
-        <v>21.52720848670388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.52216166464783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.65495319421439</v>
+        <v>22.64738711763503</v>
       </c>
       <c r="C17">
-        <v>15.10964976128409</v>
+        <v>15.10058853989471</v>
       </c>
       <c r="D17">
-        <v>8.934075594000014</v>
+        <v>8.932929298567929</v>
       </c>
       <c r="E17">
-        <v>15.31875550841128</v>
+        <v>15.3165214036603</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.01054990977352</v>
+        <v>76.71666325122827</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>76.98601155066682</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.88677485765448</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.87857352576928</v>
       </c>
       <c r="L17">
-        <v>20.98711350850904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20.98248186705723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.3004864597646</v>
+        <v>22.29330238503243</v>
       </c>
       <c r="C18">
-        <v>14.86443118731689</v>
+        <v>14.85577639380317</v>
       </c>
       <c r="D18">
-        <v>8.802666444154701</v>
+        <v>8.801585959268362</v>
       </c>
       <c r="E18">
-        <v>15.11373481538075</v>
+        <v>15.11158455922364</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.98395144379541</v>
+        <v>75.66080358920875</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>75.96040418215303</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.57915295710265</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.57132943277426</v>
       </c>
       <c r="L18">
-        <v>20.67522308887811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.67081944595778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18025461841394</v>
+        <v>22.17319725968949</v>
       </c>
       <c r="C19">
-        <v>14.78137701687448</v>
+        <v>14.77285746438914</v>
       </c>
       <c r="D19">
-        <v>8.758039184268464</v>
+        <v>8.75698038261074</v>
       </c>
       <c r="E19">
-        <v>15.04422576087275</v>
+        <v>15.04210331030474</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.63574097049145</v>
+        <v>75.30254102351105</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.61252526001817</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.47483339303979</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.46713543249917</v>
       </c>
       <c r="L19">
-        <v>20.56938164100804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.56505349496499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.7204623174988</v>
+        <v>22.71282424405801</v>
       </c>
       <c r="C20">
-        <v>15.15502787679355</v>
+        <v>15.14589026158969</v>
       </c>
       <c r="D20">
-        <v>8.958334984576442</v>
+        <v>8.957176212258227</v>
       </c>
       <c r="E20">
-        <v>15.3566594331897</v>
+        <v>15.35440951574036</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.20027170087756</v>
+        <v>76.91173265629998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.17554787771462</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.94363787680429</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.93536545446684</v>
       </c>
       <c r="L20">
-        <v>21.04472943819348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.04005475630051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.52549172621154</v>
+        <v>24.51568571218488</v>
       </c>
       <c r="C21">
-        <v>16.41289456868265</v>
+        <v>16.40148319584673</v>
       </c>
       <c r="D21">
-        <v>9.623474838603055</v>
+        <v>9.621930193026907</v>
       </c>
       <c r="E21">
-        <v>16.40207132791756</v>
+        <v>16.39934114800445</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.42478294217965</v>
+        <v>82.27669178406821</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.39462844422678</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.51194170264458</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.50154300146093</v>
       </c>
       <c r="L21">
-        <v>22.62923148143837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22.62325005895497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.70455448751304</v>
+        <v>25.69312007345007</v>
       </c>
       <c r="C22">
-        <v>17.24276085303605</v>
+        <v>17.22966963750157</v>
       </c>
       <c r="D22">
-        <v>10.05441322914244</v>
+        <v>10.05256696588532</v>
       </c>
       <c r="E22">
-        <v>17.10540821696822</v>
+        <v>17.10378787722149</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.8309457669595</v>
+        <v>85.7680119328616</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>85.79685046602297</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.5381091983731</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.5261277972888</v>
       </c>
       <c r="L22">
-        <v>23.66104606314984</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>23.65406908828709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.07482703973719</v>
+        <v>25.06428491279607</v>
       </c>
       <c r="C23">
-        <v>16.79869995150261</v>
+        <v>16.7865266118933</v>
       </c>
       <c r="D23">
-        <v>9.824608434740503</v>
+        <v>9.82292861099997</v>
       </c>
       <c r="E23">
-        <v>16.72034291805248</v>
+        <v>16.71744689682994</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.01262742216221</v>
+        <v>83.90481750624026</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>83.98068037356141</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.98985893530984</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.97874349707929</v>
       </c>
       <c r="L23">
-        <v>23.11027978435558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.10384982465764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.69084953984867</v>
+        <v>22.68324406659786</v>
       </c>
       <c r="C24">
-        <v>15.13451282911675</v>
+        <v>15.12540979712893</v>
       </c>
       <c r="D24">
-        <v>8.947369779769966</v>
+        <v>8.946216659838157</v>
       </c>
       <c r="E24">
-        <v>15.33952482434231</v>
+        <v>15.33728206740307</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.11451007542198</v>
+        <v>76.82355598840772</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.0898701803814</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.91793304481956</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.90969280784044</v>
       </c>
       <c r="L24">
-        <v>21.01868565677325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.01403046633816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.07596338414389</v>
+        <v>20.07090614450573</v>
       </c>
       <c r="C25">
-        <v>13.3373275801781</v>
+        <v>13.33097602868852</v>
       </c>
       <c r="D25">
-        <v>7.972589440628902</v>
+        <v>7.971862413549574</v>
       </c>
       <c r="E25">
-        <v>13.83161532152531</v>
+        <v>13.82993533849095</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.54621107514127</v>
+        <v>69.02572544827166</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.5284750683369</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.65070858106544</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.64501225321374</v>
       </c>
       <c r="L25">
-        <v>18.71276171599248</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.70961741755104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.07566115007769</v>
+        <v>20.3475297536291</v>
       </c>
       <c r="C2">
-        <v>11.97793045366926</v>
+        <v>13.73034161354891</v>
       </c>
       <c r="D2">
-        <v>7.219288969820774</v>
+        <v>10.26830550990914</v>
       </c>
       <c r="E2">
-        <v>12.69083667509022</v>
+        <v>9.870768498185035</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.07019909160188</v>
+        <v>2.11206959571638</v>
       </c>
       <c r="H2">
-        <v>63.77853783693911</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.099613395852973</v>
       </c>
       <c r="K2">
-        <v>15.91791036388179</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.94135745740365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.15781217171926</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.92809313746073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.66612835694187</v>
+        <v>18.88700496954641</v>
       </c>
       <c r="C3">
-        <v>11.03014134328201</v>
+        <v>12.64299198686705</v>
       </c>
       <c r="D3">
-        <v>6.683351896830326</v>
+        <v>9.948864260696478</v>
       </c>
       <c r="E3">
-        <v>11.89681687157657</v>
+        <v>9.673206650128275</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.87494531275468</v>
+        <v>2.129657321743259</v>
       </c>
       <c r="H3">
-        <v>59.74498139098937</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.114865348680681</v>
       </c>
       <c r="K3">
-        <v>14.69851477810185</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.68775026214617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.51267532940747</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>61.26259525782061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.76910728827757</v>
+        <v>18.08319268437294</v>
       </c>
       <c r="C4">
-        <v>10.43008653318917</v>
+        <v>11.96029298646671</v>
       </c>
       <c r="D4">
-        <v>6.34043151740166</v>
+        <v>9.758220159818654</v>
       </c>
       <c r="E4">
-        <v>11.39783229005099</v>
+        <v>9.557549738761292</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.21495028791249</v>
+        <v>2.14053909044887</v>
       </c>
       <c r="H4">
-        <v>57.19632879626757</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.125292109486612</v>
       </c>
       <c r="K4">
-        <v>13.9225443690935</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.8879541348684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.12990812757536</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>58.96769189997253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39521347433251</v>
+        <v>17.75426234892207</v>
       </c>
       <c r="C5">
-        <v>10.18063154381679</v>
+        <v>11.67806550798668</v>
       </c>
       <c r="D5">
-        <v>6.20626398141668</v>
+        <v>9.681873474394735</v>
       </c>
       <c r="E5">
-        <v>11.19159481378203</v>
+        <v>9.511767993683407</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.10928644900219</v>
+        <v>2.145003569147596</v>
       </c>
       <c r="H5">
-        <v>56.13923942433111</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.129802718927304</v>
       </c>
       <c r="K5">
-        <v>13.599072516169</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.55410349019337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.9772429541789</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>58.02117309662877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.33261335632204</v>
+        <v>17.6995651363763</v>
       </c>
       <c r="C6">
-        <v>10.13890200197835</v>
+        <v>11.63095393018981</v>
       </c>
       <c r="D6">
-        <v>6.186068232806739</v>
+        <v>9.66927638568554</v>
       </c>
       <c r="E6">
-        <v>11.15717492519091</v>
+        <v>9.504245581717237</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.92437023820113</v>
+        <v>2.145746956718886</v>
       </c>
       <c r="H6">
-        <v>55.96258756013795</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.130567357237526</v>
       </c>
       <c r="K6">
-        <v>13.54491099102395</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.49817922147994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.95209281070646</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>57.86331966529734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.76409914088421</v>
+        <v>18.07876199360507</v>
       </c>
       <c r="C7">
-        <v>10.42674271092301</v>
+        <v>11.95650329295281</v>
       </c>
       <c r="D7">
-        <v>6.338512879849567</v>
+        <v>9.757185127059904</v>
       </c>
       <c r="E7">
-        <v>11.39506260842171</v>
+        <v>9.556926932925549</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.20012730405301</v>
+        <v>2.140599166853444</v>
       </c>
       <c r="H7">
-        <v>57.18214770744294</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.125351888536004</v>
       </c>
       <c r="K7">
-        <v>13.91821180047744</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.88348425586946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.12783583240752</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>58.95497274262752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59593645495114</v>
+        <v>19.82480703763653</v>
       </c>
       <c r="C8">
-        <v>11.6546509234732</v>
+        <v>13.35837751164259</v>
       </c>
       <c r="D8">
-        <v>7.037284003367378</v>
+        <v>10.15699268032818</v>
       </c>
       <c r="E8">
-        <v>12.41940601547218</v>
+        <v>9.801431349339815</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.64072002733489</v>
+        <v>2.118122606661173</v>
       </c>
       <c r="H8">
-        <v>62.40240603251802</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.10464836186091</v>
       </c>
       <c r="K8">
-        <v>15.50286119603714</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.51512225103971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.93255916236604</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>63.67321541215837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.96009013830696</v>
+        <v>23.5186946158259</v>
       </c>
       <c r="C9">
-        <v>13.93868790750232</v>
+        <v>16.00410088586929</v>
       </c>
       <c r="D9">
-        <v>8.30493129436462</v>
+        <v>10.98756502645922</v>
       </c>
       <c r="E9">
-        <v>14.34154282079695</v>
+        <v>10.32960036220647</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.6814634702577</v>
+        <v>2.074209944074298</v>
       </c>
       <c r="H9">
-        <v>72.10001240792894</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.072762842761625</v>
       </c>
       <c r="K9">
-        <v>18.41533845776719</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.49534696589194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.6214672484163</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.59904300176184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.33103626710907</v>
+        <v>26.1529724628129</v>
       </c>
       <c r="C10">
-        <v>15.57479619589519</v>
+        <v>17.91691552946212</v>
       </c>
       <c r="D10">
-        <v>9.185840485618106</v>
+        <v>11.63282288353102</v>
       </c>
       <c r="E10">
-        <v>15.71253483061473</v>
+        <v>10.75433150070649</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.75358681768093</v>
+        <v>2.041203179151396</v>
       </c>
       <c r="H10">
-        <v>78.96598591008842</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.055135121221896</v>
       </c>
       <c r="K10">
-        <v>20.47208303277996</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.58359490927653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.45127366238376</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.01895772325824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.39906646018656</v>
+        <v>27.34583458197026</v>
       </c>
       <c r="C11">
-        <v>16.31981549854654</v>
+        <v>18.79084023234818</v>
       </c>
       <c r="D11">
-        <v>9.579124341360236</v>
+        <v>11.93644675455836</v>
       </c>
       <c r="E11">
-        <v>16.33171686533726</v>
+        <v>10.95771844956323</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.93029404101367</v>
+        <v>2.025776472243407</v>
       </c>
       <c r="H11">
-        <v>82.05730606857705</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.048516509610775</v>
       </c>
       <c r="K11">
-        <v>21.40014085409775</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.52101593904408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20.33427407650281</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>81.93240393245982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.80322199661187</v>
+        <v>27.79810591842917</v>
       </c>
       <c r="C12">
-        <v>16.60311671193186</v>
+        <v>19.12351669383824</v>
       </c>
       <c r="D12">
-        <v>9.727355215487352</v>
+        <v>12.05317898813566</v>
       </c>
       <c r="E12">
-        <v>16.56607415103865</v>
+        <v>11.03645171337691</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.13033249944017</v>
+        <v>2.019848109280975</v>
       </c>
       <c r="H12">
-        <v>83.22609157369641</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.046226972970271</v>
       </c>
       <c r="K12">
-        <v>21.75161861882855</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.87521371194424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20.66845027263349</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.03739363786704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.71616955742628</v>
+        <v>27.70065059726696</v>
       </c>
       <c r="C13">
-        <v>16.54203027794593</v>
+        <v>19.05176870249633</v>
       </c>
       <c r="D13">
-        <v>9.695455116750647</v>
+        <v>12.0279544887589</v>
       </c>
       <c r="E13">
-        <v>16.51559589754688</v>
+        <v>11.0194139918854</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.8719572793329</v>
+        <v>2.021129253678562</v>
       </c>
       <c r="H13">
-        <v>82.9744011632296</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.046710137433384</v>
       </c>
       <c r="K13">
-        <v>21.67589862065111</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.79894672784322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20.59646952533034</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.79928439121662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.43231412320725</v>
+        <v>27.38302287920415</v>
       </c>
       <c r="C14">
-        <v>16.3430921254901</v>
+        <v>18.81816677289873</v>
       </c>
       <c r="D14">
-        <v>9.591330892876842</v>
+        <v>11.946013058518</v>
       </c>
       <c r="E14">
-        <v>16.35099621611795</v>
+        <v>10.96415979926483</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.02906077561268</v>
+        <v>2.025290660296703</v>
       </c>
       <c r="H14">
-        <v>82.15348065732013</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.048323701489181</v>
       </c>
       <c r="K14">
-        <v>21.42904880132371</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.55016495393869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20.36176426806995</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.02325864408374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.2584491909771</v>
+        <v>27.18858627006858</v>
       </c>
       <c r="C15">
-        <v>16.22142666245324</v>
+        <v>18.67534676142255</v>
       </c>
       <c r="D15">
-        <v>9.52747362595867</v>
+        <v>11.89606114924562</v>
       </c>
       <c r="E15">
-        <v>16.25017796738487</v>
+        <v>10.93054710407781</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.51248291776074</v>
+        <v>2.027827430325895</v>
       </c>
       <c r="H15">
-        <v>81.65050080324009</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.049340809658378</v>
       </c>
       <c r="K15">
-        <v>21.2778900280947</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.39771147462708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20.21800880700326</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.54824173281604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.26112454177565</v>
+        <v>26.07501271570603</v>
       </c>
       <c r="C16">
-        <v>15.52620812444342</v>
+        <v>17.85997343857145</v>
       </c>
       <c r="D16">
-        <v>9.160018598955773</v>
+        <v>11.61320724585959</v>
       </c>
       <c r="E16">
-        <v>15.67202137456009</v>
+        <v>10.7412643458246</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.54539856774714</v>
+        <v>2.042200876886244</v>
       </c>
       <c r="H16">
-        <v>78.76353605654532</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.055597078205269</v>
       </c>
       <c r="K16">
-        <v>20.41137053119852</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.52216166464783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19.39348020684747</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>78.82863155614916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.64738711763503</v>
+        <v>25.39131455388616</v>
       </c>
       <c r="C17">
-        <v>15.10058853989471</v>
+        <v>17.3614884549216</v>
       </c>
       <c r="D17">
-        <v>8.932929298567929</v>
+        <v>11.44245713382682</v>
       </c>
       <c r="E17">
-        <v>15.3165214036603</v>
+        <v>10.62790915356083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.71666325122827</v>
+        <v>2.050895619120747</v>
       </c>
       <c r="H17">
-        <v>76.98601155066682</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.059803638078335</v>
       </c>
       <c r="K17">
-        <v>19.87857352576928</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.98248186705723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.88617017351934</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.16014168345549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.29330238503243</v>
+        <v>24.99745365866999</v>
       </c>
       <c r="C18">
-        <v>14.85577639380317</v>
+        <v>17.07504025436702</v>
       </c>
       <c r="D18">
-        <v>8.801585959268362</v>
+        <v>11.34517280296936</v>
       </c>
       <c r="E18">
-        <v>15.11158455922364</v>
+        <v>10.56364928524265</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.66080358920875</v>
+        <v>2.055859827030562</v>
       </c>
       <c r="H18">
-        <v>75.96040418215303</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.062353840805083</v>
       </c>
       <c r="K18">
-        <v>19.57132943277426</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.67081944595778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.59352849401015</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.19960451762766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.17319725968949</v>
+        <v>24.86395809732531</v>
       </c>
       <c r="C19">
-        <v>14.77285746438914</v>
+        <v>16.97806836934582</v>
       </c>
       <c r="D19">
-        <v>8.75698038261074</v>
+        <v>11.31238544167644</v>
       </c>
       <c r="E19">
-        <v>15.04210331030474</v>
+        <v>10.54204672791492</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.30254102351105</v>
+        <v>2.057535033585629</v>
       </c>
       <c r="H19">
-        <v>75.61252526001817</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.063239330452728</v>
       </c>
       <c r="K19">
-        <v>19.46713543249917</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.56505349496499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18.49427277078798</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.87416406068314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.71282424405801</v>
+        <v>25.46415052046734</v>
       </c>
       <c r="C20">
-        <v>15.14589026158969</v>
+        <v>17.41451773956869</v>
       </c>
       <c r="D20">
-        <v>8.957176212258227</v>
+        <v>11.46053598229507</v>
       </c>
       <c r="E20">
-        <v>15.35440951574036</v>
+        <v>10.63987722142186</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.91173265629998</v>
+        <v>2.049974032275043</v>
       </c>
       <c r="H20">
-        <v>77.17554787771462</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.059342215243955</v>
       </c>
       <c r="K20">
-        <v>19.93536545446684</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.04005475630051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.94025581860222</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.33782767950237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.51568571218488</v>
+        <v>27.47628995547456</v>
       </c>
       <c r="C21">
-        <v>16.40148319584673</v>
+        <v>18.88672285329697</v>
       </c>
       <c r="D21">
-        <v>9.621930193026907</v>
+        <v>11.97003061513121</v>
       </c>
       <c r="E21">
-        <v>16.39934114800445</v>
+        <v>10.98034036740498</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.27669178406821</v>
+        <v>2.02407095852671</v>
       </c>
       <c r="H21">
-        <v>82.39462844422678</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.047843733353989</v>
       </c>
       <c r="K21">
-        <v>21.50154300146093</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.62325005895497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>20.43069900567772</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.25112312025641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.69312007345007</v>
+        <v>28.79553647660355</v>
       </c>
       <c r="C22">
-        <v>17.22966963750157</v>
+        <v>19.8598623444103</v>
       </c>
       <c r="D22">
-        <v>10.05256696588532</v>
+        <v>12.31347788451943</v>
       </c>
       <c r="E22">
-        <v>17.10378787722149</v>
+        <v>11.21302587234053</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.7680119328616</v>
+        <v>2.006618635569652</v>
       </c>
       <c r="H22">
-        <v>85.79685046602297</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.04160255640315</v>
       </c>
       <c r="K22">
-        <v>22.5261277972888</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.65406908828709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>21.40431287869797</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.47428321525618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.06428491279607</v>
+        <v>28.09049243991651</v>
       </c>
       <c r="C23">
-        <v>16.7865266118933</v>
+        <v>19.33898516445614</v>
       </c>
       <c r="D23">
-        <v>9.82292861099997</v>
+        <v>12.12908600351</v>
       </c>
       <c r="E23">
-        <v>16.71744689682994</v>
+        <v>11.08780215572285</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.90481750624026</v>
+        <v>2.015992182018831</v>
       </c>
       <c r="H23">
-        <v>83.98068037356141</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.044810895296608</v>
       </c>
       <c r="K23">
-        <v>21.97874349707929</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.10384982465764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.88431857080554</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.75177630239641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.68324406659786</v>
+        <v>25.43122394869556</v>
       </c>
       <c r="C24">
-        <v>15.12540979712893</v>
+        <v>17.3905428574637</v>
       </c>
       <c r="D24">
-        <v>8.946216659838157</v>
+        <v>11.45235980864227</v>
       </c>
       <c r="E24">
-        <v>15.33728206740307</v>
+        <v>10.63446364288016</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.82355598840772</v>
+        <v>2.05039078722712</v>
       </c>
       <c r="H24">
-        <v>77.0898701803814</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.059550415106135</v>
       </c>
       <c r="K24">
-        <v>19.90969280784044</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.01403046633816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.91580682955708</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.25750008500899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.07090614450573</v>
+        <v>22.53657982665101</v>
       </c>
       <c r="C25">
-        <v>13.33097602868852</v>
+        <v>15.2966718347139</v>
       </c>
       <c r="D25">
-        <v>7.971862413549574</v>
+        <v>10.75735310394224</v>
       </c>
       <c r="E25">
-        <v>13.82993533849095</v>
+        <v>10.18087954894614</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.02572544827166</v>
+        <v>2.086149144748978</v>
       </c>
       <c r="H25">
-        <v>69.5284750683369</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.080411088885879</v>
       </c>
       <c r="K25">
-        <v>17.64501225321374</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.70961741755104</v>
+        <v>17.15170780470395</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>70.21451620354287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.3475297536291</v>
+        <v>11.96982898035618</v>
       </c>
       <c r="C2">
-        <v>13.73034161354891</v>
+        <v>12.92974642891003</v>
       </c>
       <c r="D2">
-        <v>10.26830550990914</v>
+        <v>7.877907443964927</v>
       </c>
       <c r="E2">
-        <v>9.870768498185035</v>
+        <v>6.328263217679686</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.11206959571638</v>
+        <v>2.238116321490848</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>68.84239402968426</v>
       </c>
       <c r="J2">
-        <v>5.099613395852973</v>
+        <v>4.494805366337039</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.00648173925919</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.333730413984386</v>
       </c>
       <c r="M2">
-        <v>16.15781217171926</v>
+        <v>11.99579668767396</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>64.92809313746073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.88700496954641</v>
+        <v>11.73540128626354</v>
       </c>
       <c r="C3">
-        <v>12.64299198686705</v>
+        <v>12.23613894443151</v>
       </c>
       <c r="D3">
-        <v>9.948864260696478</v>
+        <v>7.769967455941076</v>
       </c>
       <c r="E3">
-        <v>9.673206650128275</v>
+        <v>6.375978589914384</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.129657321743259</v>
+        <v>2.250998634686343</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>65.648692565483</v>
       </c>
       <c r="J3">
-        <v>5.114865348680681</v>
+        <v>4.46704886584174</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.69434786180489</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.232717860983064</v>
       </c>
       <c r="M3">
-        <v>15.51267532940747</v>
+        <v>11.95386454247249</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>61.26259525782061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.08319268437294</v>
+        <v>11.61278762285439</v>
       </c>
       <c r="C4">
-        <v>11.96029298646671</v>
+        <v>11.79942188568049</v>
       </c>
       <c r="D4">
-        <v>9.758220159818654</v>
+        <v>7.708285878478427</v>
       </c>
       <c r="E4">
-        <v>9.557549738761292</v>
+        <v>6.406909938716787</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.14053909044887</v>
+        <v>2.259048458547322</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>63.63742583555813</v>
       </c>
       <c r="J4">
-        <v>5.125292109486612</v>
+        <v>4.450118196742095</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.51569115039642</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.174521126549875</v>
       </c>
       <c r="M4">
-        <v>15.12990812757536</v>
+        <v>11.93874865842766</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>58.96769189997253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.75426234892207</v>
+        <v>11.56799672128904</v>
       </c>
       <c r="C5">
-        <v>11.67806550798668</v>
+        <v>11.61884343362784</v>
       </c>
       <c r="D5">
-        <v>9.681873474394735</v>
+        <v>7.684280375740054</v>
       </c>
       <c r="E5">
-        <v>9.511767993683407</v>
+        <v>6.419928141629436</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.145003569147596</v>
+        <v>2.26236802536162</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>62.80544438611475</v>
       </c>
       <c r="J5">
-        <v>5.129802718927304</v>
+        <v>4.443238754591508</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.4461058808644</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.151742538281301</v>
       </c>
       <c r="M5">
-        <v>14.9772429541789</v>
+        <v>11.93514919724019</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>58.02117309662877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.6995651363763</v>
+        <v>11.56086604862662</v>
       </c>
       <c r="C6">
-        <v>11.63095393018981</v>
+        <v>11.58870480235389</v>
       </c>
       <c r="D6">
-        <v>9.66927638568554</v>
+        <v>7.680361823335134</v>
       </c>
       <c r="E6">
-        <v>9.504245581717237</v>
+        <v>6.422114847811851</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.145746956718886</v>
+        <v>2.262921714216655</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>62.66655798968214</v>
       </c>
       <c r="J6">
-        <v>5.130567357237526</v>
+        <v>4.442097407908171</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.43474424255849</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.148016062772935</v>
       </c>
       <c r="M6">
-        <v>14.95209281070646</v>
+        <v>11.93470293237187</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>57.86331966529734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.07876199360507</v>
+        <v>11.61216286051116</v>
       </c>
       <c r="C7">
-        <v>11.95650329295281</v>
+        <v>11.79699694165157</v>
       </c>
       <c r="D7">
-        <v>9.757185127059904</v>
+        <v>7.707957588144566</v>
       </c>
       <c r="E7">
-        <v>9.556926932925549</v>
+        <v>6.40708382945425</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.140599166853444</v>
+        <v>2.259093063661167</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>63.62625507436157</v>
       </c>
       <c r="J7">
-        <v>5.125351888536004</v>
+        <v>4.450025347706586</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.51473973196895</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.174210164384924</v>
       </c>
       <c r="M7">
-        <v>15.12783583240752</v>
+        <v>11.93868989386451</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>58.95497274262752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.82480703763653</v>
+        <v>11.88446325520253</v>
       </c>
       <c r="C8">
-        <v>13.35837751164259</v>
+        <v>12.69289549908946</v>
       </c>
       <c r="D8">
-        <v>10.15699268032818</v>
+        <v>7.839720935819796</v>
       </c>
       <c r="E8">
-        <v>9.801431349339815</v>
+        <v>6.344377932863941</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.118122606661173</v>
+        <v>2.242531596617626</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>67.75177405520078</v>
       </c>
       <c r="J8">
-        <v>5.10464836186091</v>
+        <v>4.485206492314042</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.89613144728669</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.298091869894041</v>
       </c>
       <c r="M8">
-        <v>15.93255916236604</v>
+        <v>11.97906283746182</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>63.67321541215837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.5186946158259</v>
+        <v>12.59551841910343</v>
       </c>
       <c r="C9">
-        <v>16.00410088586929</v>
+        <v>14.36090520877492</v>
       </c>
       <c r="D9">
-        <v>10.98756502645922</v>
+        <v>8.135770502319573</v>
       </c>
       <c r="E9">
-        <v>10.32960036220647</v>
+        <v>6.234254920386282</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.074209944074298</v>
+        <v>2.210964109785264</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>75.43802261832914</v>
       </c>
       <c r="J9">
-        <v>5.072762842761625</v>
+        <v>4.555504489632573</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.7495315640549</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.572608997376504</v>
       </c>
       <c r="M9">
-        <v>17.6214672484163</v>
+        <v>12.14791444773486</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.59904300176184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.1529724628129</v>
+        <v>13.23651898961851</v>
       </c>
       <c r="C10">
-        <v>17.91691552946212</v>
+        <v>15.5314343010863</v>
       </c>
       <c r="D10">
-        <v>11.63282288353102</v>
+        <v>8.378160760845752</v>
       </c>
       <c r="E10">
-        <v>10.75433150070649</v>
+        <v>6.160998377115651</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.041203179151396</v>
+        <v>2.188005666693759</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>80.84433924862388</v>
       </c>
       <c r="J10">
-        <v>5.055135121221896</v>
+        <v>4.608625030841443</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.44497223670245</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.795516585297943</v>
       </c>
       <c r="M10">
-        <v>19.45127366238376</v>
+        <v>12.33453064687818</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>79.01895772325824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.34583458197026</v>
+        <v>13.55633785325656</v>
       </c>
       <c r="C11">
-        <v>18.79084023234818</v>
+        <v>16.05268567520967</v>
       </c>
       <c r="D11">
-        <v>11.93644675455836</v>
+        <v>8.494357767705973</v>
       </c>
       <c r="E11">
-        <v>10.95771844956323</v>
+        <v>6.129291034332844</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.025776472243407</v>
+        <v>2.177527405736013</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>83.25611408085068</v>
       </c>
       <c r="J11">
-        <v>5.048516509610775</v>
+        <v>4.633291746572471</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.77750519900786</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.902059661995557</v>
       </c>
       <c r="M11">
-        <v>20.33427407650281</v>
+        <v>12.43493307966173</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>81.93240393245982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.79810591842917</v>
+        <v>13.68173908295196</v>
       </c>
       <c r="C12">
-        <v>19.12351669383824</v>
+        <v>16.24856748834715</v>
       </c>
       <c r="D12">
-        <v>12.05317898813566</v>
+        <v>8.53926564606806</v>
       </c>
       <c r="E12">
-        <v>11.03645171337691</v>
+        <v>6.117513108688161</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.019848109280975</v>
+        <v>2.173546251745779</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>84.16316323408691</v>
       </c>
       <c r="J12">
-        <v>5.046226972970271</v>
+        <v>4.642722604918148</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.90590079152568</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.94319748146979</v>
       </c>
       <c r="M12">
-        <v>20.66845027263349</v>
+        <v>12.47536274417437</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>83.03739363786704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.70065059726696</v>
+        <v>13.6545365806426</v>
       </c>
       <c r="C13">
-        <v>19.05176870249633</v>
+        <v>16.2064455158535</v>
       </c>
       <c r="D13">
-        <v>12.0279544887589</v>
+        <v>8.529552634230503</v>
       </c>
       <c r="E13">
-        <v>11.0194139918854</v>
+        <v>6.12003957423544</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.021129253678562</v>
+        <v>2.174404401160186</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>83.96807956206538</v>
       </c>
       <c r="J13">
-        <v>5.046710137433384</v>
+        <v>4.640687175370319</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.87813572978865</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.93430152672498</v>
       </c>
       <c r="M13">
-        <v>20.59646952533034</v>
+        <v>12.46654524900109</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>82.79928439121662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.38302287920415</v>
+        <v>13.56656716441572</v>
       </c>
       <c r="C14">
-        <v>18.81816677289873</v>
+        <v>16.0688303539268</v>
       </c>
       <c r="D14">
-        <v>11.946013058518</v>
+        <v>8.498033849083166</v>
       </c>
       <c r="E14">
-        <v>10.96415979926483</v>
+        <v>6.128317490656019</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.025290660296703</v>
+        <v>2.177200192007975</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>83.33085837804217</v>
       </c>
       <c r="J14">
-        <v>5.048323701489181</v>
+        <v>4.634065709653861</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.78801783231375</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.90542787737343</v>
       </c>
       <c r="M14">
-        <v>20.36176426806995</v>
+        <v>12.43820986149409</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>82.02325864408374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.18858627006858</v>
+        <v>13.51325005281085</v>
       </c>
       <c r="C15">
-        <v>18.67534676142255</v>
+        <v>15.98434517454058</v>
       </c>
       <c r="D15">
-        <v>11.89606114924562</v>
+        <v>8.478847529951109</v>
       </c>
       <c r="E15">
-        <v>10.93054710407781</v>
+        <v>6.133417657007575</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.027827430325895</v>
+        <v>2.178910697897963</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>82.93975111202009</v>
       </c>
       <c r="J15">
-        <v>5.049340809658378</v>
+        <v>4.630022188480047</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.73314510963185</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.887846853674336</v>
       </c>
       <c r="M15">
-        <v>20.21800880700326</v>
+        <v>12.42117307646711</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>81.54824173281604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.07501271570603</v>
+        <v>13.21620514864171</v>
       </c>
       <c r="C16">
-        <v>17.85997343857145</v>
+        <v>15.49715170941607</v>
       </c>
       <c r="D16">
-        <v>11.61320724585959</v>
+        <v>8.370690714986944</v>
       </c>
       <c r="E16">
-        <v>10.7412643458246</v>
+        <v>6.163102770733748</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.042200876886244</v>
+        <v>2.188689071809682</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>80.68581371212501</v>
       </c>
       <c r="J16">
-        <v>5.055597078205269</v>
+        <v>4.607024570029822</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.42357748897271</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.788661505966164</v>
       </c>
       <c r="M16">
-        <v>19.39348020684747</v>
+        <v>12.32829605847236</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>78.82863155614916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.39131455388616</v>
+        <v>13.04136151517295</v>
       </c>
       <c r="C17">
-        <v>17.3614884549216</v>
+        <v>15.19546238336799</v>
       </c>
       <c r="D17">
-        <v>11.44245713382682</v>
+        <v>8.305894184656308</v>
       </c>
       <c r="E17">
-        <v>10.62790915356083</v>
+        <v>6.181725408836936</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.050895619120747</v>
+        <v>2.194673458419965</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>79.29127637415279</v>
       </c>
       <c r="J17">
-        <v>5.059803638078335</v>
+        <v>4.593056698342965</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.2379020106381</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.729166009471566</v>
       </c>
       <c r="M17">
-        <v>18.88617017351934</v>
+        <v>12.27541265935275</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>77.16014168345549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.99745365866999</v>
+        <v>12.94343686534075</v>
       </c>
       <c r="C18">
-        <v>17.07504025436702</v>
+        <v>15.02087252990258</v>
       </c>
       <c r="D18">
-        <v>11.34517280296936</v>
+        <v>8.269179552113343</v>
       </c>
       <c r="E18">
-        <v>10.56364928524265</v>
+        <v>6.192589132319594</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.055859827030562</v>
+        <v>2.198112853392673</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>78.48464849678344</v>
       </c>
       <c r="J18">
-        <v>5.062353840805083</v>
+        <v>4.585068760700016</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.1326177548075</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.695426012920796</v>
       </c>
       <c r="M18">
-        <v>18.59352849401015</v>
+        <v>12.24644358890396</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>76.19960451762766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.86395809732531</v>
+        <v>12.91072830209974</v>
       </c>
       <c r="C19">
-        <v>16.97806836934582</v>
+        <v>14.96157368686949</v>
       </c>
       <c r="D19">
-        <v>11.31238544167644</v>
+        <v>8.256842408653238</v>
       </c>
       <c r="E19">
-        <v>10.54204672791492</v>
+        <v>6.196293695323963</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.057535033585629</v>
+        <v>2.199277148823838</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>78.21074545844769</v>
       </c>
       <c r="J19">
-        <v>5.063239330452728</v>
+        <v>4.582371584868563</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.0972260809519</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.684083253490336</v>
       </c>
       <c r="M19">
-        <v>18.49427277078798</v>
+        <v>12.2368787326341</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>75.87416406068314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46415052046734</v>
+        <v>13.05969903670445</v>
       </c>
       <c r="C20">
-        <v>17.41451773956869</v>
+        <v>15.22768741673312</v>
       </c>
       <c r="D20">
-        <v>11.46053598229507</v>
+        <v>8.312734132381722</v>
       </c>
       <c r="E20">
-        <v>10.63987722142186</v>
+        <v>6.179727241905686</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.049974032275043</v>
+        <v>2.19403674241249</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>79.44019202263303</v>
       </c>
       <c r="J20">
-        <v>5.059342215243955</v>
+        <v>4.594538719289184</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.25751012989341</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.735449351156571</v>
       </c>
       <c r="M20">
-        <v>18.94025581860222</v>
+        <v>12.28089108591231</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.33782767950237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.47628995547456</v>
+        <v>13.59228733629792</v>
       </c>
       <c r="C21">
-        <v>18.88672285329697</v>
+        <v>16.10929099690064</v>
       </c>
       <c r="D21">
-        <v>11.97003061513121</v>
+        <v>8.507266592255441</v>
       </c>
       <c r="E21">
-        <v>10.98034036740498</v>
+        <v>6.12587988272306</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.02407095852671</v>
+        <v>2.176379433335466</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>83.51818913610516</v>
       </c>
       <c r="J21">
-        <v>5.047843733353989</v>
+        <v>4.636007991307297</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.81441915305813</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.91388679361601</v>
       </c>
       <c r="M21">
-        <v>20.43069900567772</v>
+        <v>12.44646572633173</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>82.25112312025641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.79553647660355</v>
+        <v>13.96552825317928</v>
       </c>
       <c r="C22">
-        <v>19.8598623444103</v>
+        <v>16.67678384380472</v>
       </c>
       <c r="D22">
-        <v>12.31347788451943</v>
+        <v>8.639722806023693</v>
       </c>
       <c r="E22">
-        <v>11.21302587234053</v>
+        <v>6.092020112851358</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.006618635569652</v>
+        <v>2.164757182532616</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>86.14747032390797</v>
       </c>
       <c r="J22">
-        <v>5.04160255640315</v>
+        <v>4.663646385290927</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.19290495422293</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.03515632213186</v>
       </c>
       <c r="M22">
-        <v>21.40431287869797</v>
+        <v>12.56882200010254</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>85.47428321525618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.09049243991651</v>
+        <v>13.76393100034737</v>
       </c>
       <c r="C23">
-        <v>19.33898516445614</v>
+        <v>16.37464846046607</v>
       </c>
       <c r="D23">
-        <v>12.12908600351</v>
+        <v>8.568521016572273</v>
       </c>
       <c r="E23">
-        <v>11.08780215572285</v>
+        <v>6.109971068260176</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.015992182018831</v>
+        <v>2.17097082379359</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>84.74720627536635</v>
       </c>
       <c r="J23">
-        <v>5.044810895296608</v>
+        <v>4.648839486812186</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.98951162258489</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.96998671193753</v>
       </c>
       <c r="M23">
-        <v>20.88431857080554</v>
+        <v>12.50215897359246</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>83.75177630239641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43122394869556</v>
+        <v>13.05140057657428</v>
       </c>
       <c r="C24">
-        <v>17.3905428574637</v>
+        <v>15.21312205211151</v>
       </c>
       <c r="D24">
-        <v>11.45235980864227</v>
+        <v>8.309640120897626</v>
       </c>
       <c r="E24">
-        <v>10.63446364288016</v>
+        <v>6.180630122886973</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.05039078722712</v>
+        <v>2.194324604562705</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>79.37288253155049</v>
       </c>
       <c r="J24">
-        <v>5.059550415106135</v>
+        <v>4.593868566931889</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.24864075259164</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.732607208623893</v>
       </c>
       <c r="M24">
-        <v>18.91580682955708</v>
+        <v>12.2784098350134</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.25750008500899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.53657982665101</v>
+        <v>12.38310997903783</v>
       </c>
       <c r="C25">
-        <v>15.2966718347139</v>
+        <v>13.91940829496027</v>
       </c>
       <c r="D25">
-        <v>10.75735310394224</v>
+        <v>8.051465898916371</v>
       </c>
       <c r="E25">
-        <v>10.18087954894614</v>
+        <v>6.26268900773478</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.086149144748978</v>
+        <v>2.219437161272276</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>73.40194968149964</v>
       </c>
       <c r="J25">
-        <v>5.080411088885879</v>
+        <v>4.536282861009536</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.5069967049863</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.494775898435753</v>
       </c>
       <c r="M25">
-        <v>17.15170780470395</v>
+        <v>12.09185427162531</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>70.21451620354287</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.96982898035618</v>
+        <v>21.63680145232487</v>
       </c>
       <c r="C2">
-        <v>12.92974642891003</v>
+        <v>12.1619385193875</v>
       </c>
       <c r="D2">
-        <v>7.877907443964927</v>
+        <v>12.53841595259499</v>
       </c>
       <c r="E2">
-        <v>6.328263217679686</v>
+        <v>11.41297947709919</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.238116321490848</v>
+        <v>3.904430652023717</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>68.84239402968426</v>
+        <v>62.72879921337066</v>
       </c>
       <c r="J2">
-        <v>4.494805366337039</v>
+        <v>7.243225392641117</v>
       </c>
       <c r="K2">
-        <v>13.00648173925919</v>
+        <v>20.77577049963612</v>
       </c>
       <c r="L2">
-        <v>9.333730413984386</v>
+        <v>14.64962145754878</v>
       </c>
       <c r="M2">
-        <v>11.99579668767396</v>
+        <v>21.41411060295107</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.73540128626354</v>
+        <v>21.75076131927398</v>
       </c>
       <c r="C3">
-        <v>12.23613894443151</v>
+        <v>11.97208812635933</v>
       </c>
       <c r="D3">
-        <v>7.769967455941076</v>
+        <v>12.55384038386518</v>
       </c>
       <c r="E3">
-        <v>6.375978589914384</v>
+        <v>11.43786491540894</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.250998634686343</v>
+        <v>3.908580487355095</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>65.648692565483</v>
+        <v>61.63273878443471</v>
       </c>
       <c r="J3">
-        <v>4.46704886584174</v>
+        <v>7.236845207378141</v>
       </c>
       <c r="K3">
-        <v>12.69434786180489</v>
+        <v>20.82669145876357</v>
       </c>
       <c r="L3">
-        <v>9.232717860983064</v>
+        <v>14.6574557958328</v>
       </c>
       <c r="M3">
-        <v>11.95386454247249</v>
+        <v>21.48356447772231</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.61278762285439</v>
+        <v>21.82801760390798</v>
       </c>
       <c r="C4">
-        <v>11.79942188568049</v>
+        <v>11.85595966337181</v>
       </c>
       <c r="D4">
-        <v>7.708285878478427</v>
+        <v>12.56538285881444</v>
       </c>
       <c r="E4">
-        <v>6.406909938716787</v>
+        <v>11.45411273770534</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.259048458547322</v>
+        <v>3.911255819470507</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>63.63742583555813</v>
+        <v>60.94673472976633</v>
       </c>
       <c r="J4">
-        <v>4.450118196742095</v>
+        <v>7.232856925650043</v>
       </c>
       <c r="K4">
-        <v>12.51569115039642</v>
+        <v>20.86367594471317</v>
       </c>
       <c r="L4">
-        <v>9.174521126549875</v>
+        <v>14.6639616645725</v>
       </c>
       <c r="M4">
-        <v>11.93874865842766</v>
+        <v>21.53033783491196</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.56799672128904</v>
+        <v>21.86132405356248</v>
       </c>
       <c r="C5">
-        <v>11.61884343362784</v>
+        <v>11.80879741261374</v>
       </c>
       <c r="D5">
-        <v>7.684280375740054</v>
+        <v>12.57060723956846</v>
       </c>
       <c r="E5">
-        <v>6.419928141629436</v>
+        <v>11.46097798719646</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.26236802536162</v>
+        <v>3.912378189355412</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>62.80544438611475</v>
+        <v>60.66410854421592</v>
       </c>
       <c r="J5">
-        <v>4.443238754591508</v>
+        <v>7.23121376520335</v>
       </c>
       <c r="K5">
-        <v>12.4461058808644</v>
+        <v>20.88018094927612</v>
       </c>
       <c r="L5">
-        <v>9.151742538281301</v>
+        <v>14.6670394494302</v>
       </c>
       <c r="M5">
-        <v>11.93514919724019</v>
+        <v>21.55043563516628</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.56086604862662</v>
+        <v>21.86696449167817</v>
       </c>
       <c r="C6">
-        <v>11.58870480235389</v>
+        <v>11.80097735219987</v>
       </c>
       <c r="D6">
-        <v>7.680361823335134</v>
+        <v>12.57150618576614</v>
       </c>
       <c r="E6">
-        <v>6.422114847811851</v>
+        <v>11.46213272218223</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.262921714216655</v>
+        <v>3.912566503793927</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>62.66655798968214</v>
+        <v>60.61699897494812</v>
       </c>
       <c r="J6">
-        <v>4.442097407908171</v>
+        <v>7.230939835576406</v>
       </c>
       <c r="K6">
-        <v>12.43474424255849</v>
+        <v>20.88300803518332</v>
       </c>
       <c r="L6">
-        <v>9.148016062772935</v>
+        <v>14.66757628371041</v>
       </c>
       <c r="M6">
-        <v>11.93470293237187</v>
+        <v>21.55383548362649</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.61216286051116</v>
+        <v>21.82845941207459</v>
       </c>
       <c r="C7">
-        <v>11.79699694165157</v>
+        <v>11.85532289824388</v>
       </c>
       <c r="D7">
-        <v>7.707957588144566</v>
+        <v>12.56545120862508</v>
       </c>
       <c r="E7">
-        <v>6.40708382945425</v>
+        <v>11.45420433545891</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.259093063661167</v>
+        <v>3.911270825791076</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>63.62625507436157</v>
+        <v>60.94293531245862</v>
       </c>
       <c r="J7">
-        <v>4.450025347706586</v>
+        <v>7.232834838027554</v>
       </c>
       <c r="K7">
-        <v>12.51473973196895</v>
+        <v>20.86389273902239</v>
       </c>
       <c r="L7">
-        <v>9.174210164384924</v>
+        <v>14.66400144515624</v>
       </c>
       <c r="M7">
-        <v>11.93868989386451</v>
+        <v>21.5306046821806</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.88446325520253</v>
+        <v>21.67457822030063</v>
       </c>
       <c r="C8">
-        <v>12.69289549908946</v>
+        <v>12.09641683274433</v>
       </c>
       <c r="D8">
-        <v>7.839720935819796</v>
+        <v>12.54330416862887</v>
       </c>
       <c r="E8">
-        <v>6.344377932863941</v>
+        <v>11.42135947739801</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.242531596617626</v>
+        <v>3.905835172569901</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>67.75177405520078</v>
+        <v>62.35369733037022</v>
       </c>
       <c r="J8">
-        <v>4.485206492314042</v>
+        <v>7.2410401459104</v>
       </c>
       <c r="K8">
-        <v>12.89613144728669</v>
+        <v>20.79213849503649</v>
       </c>
       <c r="L8">
-        <v>9.298091869894041</v>
+        <v>14.65197097891904</v>
       </c>
       <c r="M8">
-        <v>11.97906283746182</v>
+        <v>21.43720094952474</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.59551841910343</v>
+        <v>21.43096590277708</v>
       </c>
       <c r="C9">
-        <v>14.36090520877492</v>
+        <v>12.57049955950812</v>
       </c>
       <c r="D9">
-        <v>8.135770502319573</v>
+        <v>12.51632157048008</v>
       </c>
       <c r="E9">
-        <v>6.234254920386282</v>
+        <v>11.36460037047252</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.210964109785264</v>
+        <v>3.896179873800516</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>75.43802261832914</v>
+        <v>65.00849353974999</v>
       </c>
       <c r="J9">
-        <v>4.555504489632573</v>
+        <v>7.256573557652494</v>
       </c>
       <c r="K9">
-        <v>13.7495315640549</v>
+        <v>20.69699276591504</v>
       </c>
       <c r="L9">
-        <v>9.572608997376504</v>
+        <v>14.6418218791825</v>
       </c>
       <c r="M9">
-        <v>12.14791444773486</v>
+        <v>21.28683139964363</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.23651898961851</v>
+        <v>21.28790729342845</v>
       </c>
       <c r="C10">
-        <v>15.5314343010863</v>
+        <v>12.91670345255705</v>
       </c>
       <c r="D10">
-        <v>8.378160760845752</v>
+        <v>12.50653313934361</v>
       </c>
       <c r="E10">
-        <v>6.160998377115651</v>
+        <v>11.32751931715049</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.188005666693759</v>
+        <v>3.889689495274411</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.84433924862388</v>
+        <v>66.880181086017</v>
       </c>
       <c r="J10">
-        <v>4.608625030841443</v>
+        <v>7.267653630233573</v>
       </c>
       <c r="K10">
-        <v>14.44497223670245</v>
+        <v>20.65510211853697</v>
       </c>
       <c r="L10">
-        <v>9.795516585297943</v>
+        <v>14.64254461553061</v>
       </c>
       <c r="M10">
-        <v>12.33453064687818</v>
+        <v>21.19639976140359</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.55633785325656</v>
+        <v>21.23072668120876</v>
       </c>
       <c r="C11">
-        <v>16.05268567520967</v>
+        <v>13.07315032705637</v>
       </c>
       <c r="D11">
-        <v>8.494357767705973</v>
+        <v>12.50425923004904</v>
       </c>
       <c r="E11">
-        <v>6.129291034332844</v>
+        <v>11.31164414188449</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.177527405736013</v>
+        <v>3.886866004047512</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.25611408085068</v>
+        <v>67.71245359176069</v>
       </c>
       <c r="J11">
-        <v>4.633291746572471</v>
+        <v>7.272623689201124</v>
       </c>
       <c r="K11">
-        <v>14.77750519900786</v>
+        <v>20.64216983310566</v>
       </c>
       <c r="L11">
-        <v>9.902059661995557</v>
+        <v>14.64464483363637</v>
       </c>
       <c r="M11">
-        <v>12.43493307966173</v>
+        <v>21.15962358061183</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.68173908295196</v>
+        <v>21.21021759964756</v>
       </c>
       <c r="C12">
-        <v>16.24856748834715</v>
+        <v>13.13219507257375</v>
       </c>
       <c r="D12">
-        <v>8.53926564606806</v>
+        <v>12.50371125436197</v>
       </c>
       <c r="E12">
-        <v>6.117513108688161</v>
+        <v>11.30577473489677</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.173546251745779</v>
+        <v>3.885815229153328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.16316323408691</v>
+        <v>68.02469299511523</v>
       </c>
       <c r="J12">
-        <v>4.642722604918148</v>
+        <v>7.274495718417127</v>
       </c>
       <c r="K12">
-        <v>14.90590079152568</v>
+        <v>20.63815601478177</v>
       </c>
       <c r="L12">
-        <v>9.94319748146979</v>
+        <v>14.6456942952899</v>
       </c>
       <c r="M12">
-        <v>12.47536274417437</v>
+        <v>21.14632548260727</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.6545365806426</v>
+        <v>21.21458358758039</v>
       </c>
       <c r="C13">
-        <v>16.2064455158535</v>
+        <v>13.11948829884318</v>
       </c>
       <c r="D13">
-        <v>8.529552634230503</v>
+        <v>12.503815349993</v>
       </c>
       <c r="E13">
-        <v>6.12003957423544</v>
+        <v>11.30703250348178</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.174404401160186</v>
+        <v>3.886040715197688</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.96807956206538</v>
+        <v>67.95757927590003</v>
       </c>
       <c r="J13">
-        <v>4.640687175370319</v>
+        <v>7.274092987866101</v>
       </c>
       <c r="K13">
-        <v>14.87813572978865</v>
+        <v>20.63898113624968</v>
       </c>
       <c r="L13">
-        <v>9.93430152672498</v>
+        <v>14.64545698135291</v>
       </c>
       <c r="M13">
-        <v>12.46654524900109</v>
+        <v>21.14916150826519</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.56656716441572</v>
+        <v>21.2290164125703</v>
       </c>
       <c r="C14">
-        <v>16.0688303539268</v>
+        <v>13.07801221802306</v>
       </c>
       <c r="D14">
-        <v>8.498033849083166</v>
+        <v>12.50420787432732</v>
       </c>
       <c r="E14">
-        <v>6.128317490656019</v>
+        <v>11.31115841644589</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.177200192007975</v>
+        <v>3.886779187758004</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.33085837804217</v>
+        <v>67.73820124699591</v>
       </c>
       <c r="J14">
-        <v>4.634065709653861</v>
+        <v>7.272777902569666</v>
       </c>
       <c r="K14">
-        <v>14.78801783231375</v>
+        <v>20.64182189606887</v>
       </c>
       <c r="L14">
-        <v>9.90542787737343</v>
+        <v>14.64472608341736</v>
       </c>
       <c r="M14">
-        <v>12.43820986149409</v>
+        <v>21.15851694126031</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.51325005281085</v>
+        <v>21.23800615869476</v>
       </c>
       <c r="C15">
-        <v>15.98434517454058</v>
+        <v>13.05257969509678</v>
       </c>
       <c r="D15">
-        <v>8.478847529951109</v>
+        <v>12.50448907387152</v>
       </c>
       <c r="E15">
-        <v>6.133417657007575</v>
+        <v>11.31370415402452</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.178910697897963</v>
+        <v>3.88723391842464</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.93975111202009</v>
+        <v>67.60344024207296</v>
       </c>
       <c r="J15">
-        <v>4.630022188480047</v>
+        <v>7.271971072003944</v>
       </c>
       <c r="K15">
-        <v>14.73314510963185</v>
+        <v>20.64367705584487</v>
       </c>
       <c r="L15">
-        <v>9.887846853674336</v>
+        <v>14.64431146733515</v>
       </c>
       <c r="M15">
-        <v>12.42117307646711</v>
+        <v>21.1643292605218</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.21620514864171</v>
+        <v>21.29180381334193</v>
       </c>
       <c r="C16">
-        <v>15.49715170941607</v>
+        <v>12.90645412296134</v>
       </c>
       <c r="D16">
-        <v>8.370690714986944</v>
+        <v>12.50672557352182</v>
       </c>
       <c r="E16">
-        <v>6.163102770733748</v>
+        <v>11.32857672763091</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.188689071809682</v>
+        <v>3.889876601866278</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.68581371212501</v>
+        <v>66.82538985460508</v>
       </c>
       <c r="J16">
-        <v>4.607024570029822</v>
+        <v>7.267327417664321</v>
       </c>
       <c r="K16">
-        <v>14.42357748897271</v>
+        <v>20.65607074861505</v>
       </c>
       <c r="L16">
-        <v>9.788661505966164</v>
+        <v>14.64244295975583</v>
       </c>
       <c r="M16">
-        <v>12.32829605847236</v>
+        <v>21.19889102852091</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.04136151517295</v>
+        <v>21.32683563269461</v>
       </c>
       <c r="C17">
-        <v>15.19546238336799</v>
+        <v>12.81650874500025</v>
       </c>
       <c r="D17">
-        <v>8.305894184656308</v>
+        <v>12.50865554135057</v>
       </c>
       <c r="E17">
-        <v>6.181725408836936</v>
+        <v>11.33795448971448</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.194673458419965</v>
+        <v>3.891530752186312</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>79.29127637415279</v>
+        <v>66.34304943972137</v>
       </c>
       <c r="J17">
-        <v>4.593056698342965</v>
+        <v>7.264460737753726</v>
       </c>
       <c r="K17">
-        <v>14.2379020106381</v>
+        <v>20.66524447180388</v>
       </c>
       <c r="L17">
-        <v>9.729166009471566</v>
+        <v>14.6417500138921</v>
       </c>
       <c r="M17">
-        <v>12.27541265935275</v>
+        <v>21.22121142454469</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.94343686534075</v>
+        <v>21.3477278659952</v>
       </c>
       <c r="C18">
-        <v>15.02087252990258</v>
+        <v>12.76467915244355</v>
       </c>
       <c r="D18">
-        <v>8.269179552113343</v>
+        <v>12.50997071605211</v>
       </c>
       <c r="E18">
-        <v>6.192589132319594</v>
+        <v>11.34344185141988</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.198112853392673</v>
+        <v>3.892494327053639</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>78.48464849678344</v>
+        <v>66.06382529490503</v>
       </c>
       <c r="J18">
-        <v>4.585068760700016</v>
+        <v>7.262805275054244</v>
       </c>
       <c r="K18">
-        <v>14.1326177548075</v>
+        <v>20.67109723868179</v>
       </c>
       <c r="L18">
-        <v>9.695426012920796</v>
+        <v>14.64151822566452</v>
       </c>
       <c r="M18">
-        <v>12.24644358890396</v>
+        <v>21.23446000205558</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.91072830209974</v>
+        <v>21.35492894748175</v>
       </c>
       <c r="C19">
-        <v>14.96157368686949</v>
+        <v>12.74711566071784</v>
       </c>
       <c r="D19">
-        <v>8.256842408653238</v>
+        <v>12.51045124396249</v>
       </c>
       <c r="E19">
-        <v>6.196293695323963</v>
+        <v>11.34531585973499</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.199277148823838</v>
+        <v>3.892822667980687</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>78.21074545844769</v>
+        <v>65.96898182640911</v>
       </c>
       <c r="J19">
-        <v>4.582371584868563</v>
+        <v>7.262243623427139</v>
       </c>
       <c r="K19">
-        <v>14.0972260809519</v>
+        <v>20.67317777113909</v>
       </c>
       <c r="L19">
-        <v>9.684083253490336</v>
+        <v>14.64146840636268</v>
       </c>
       <c r="M19">
-        <v>12.2368787326341</v>
+        <v>21.23901620997746</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.05969903670445</v>
+        <v>21.32302949204742</v>
       </c>
       <c r="C20">
-        <v>15.22768741673312</v>
+        <v>12.82609381219631</v>
       </c>
       <c r="D20">
-        <v>8.312734132381722</v>
+        <v>12.50842886628847</v>
       </c>
       <c r="E20">
-        <v>6.179727241905686</v>
+        <v>11.33694653652797</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.19403674241249</v>
+        <v>3.891353408400076</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>79.44019202263303</v>
+        <v>66.39458239054147</v>
       </c>
       <c r="J20">
-        <v>4.594538719289184</v>
+        <v>7.264766585669151</v>
       </c>
       <c r="K20">
-        <v>14.25751012989341</v>
+        <v>20.66420824880956</v>
       </c>
       <c r="L20">
-        <v>9.735449351156571</v>
+        <v>14.6418065224245</v>
       </c>
       <c r="M20">
-        <v>12.28089108591231</v>
+        <v>21.21879288990705</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.59228733629792</v>
+        <v>21.22474602917885</v>
       </c>
       <c r="C21">
-        <v>16.10929099690064</v>
+        <v>13.09020050580623</v>
       </c>
       <c r="D21">
-        <v>8.507266592255441</v>
+        <v>12.50408408514499</v>
       </c>
       <c r="E21">
-        <v>6.12587988272306</v>
+        <v>11.30994268222421</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.176379433335466</v>
+        <v>3.886561781607022</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.51818913610516</v>
+        <v>67.80271854253898</v>
       </c>
       <c r="J21">
-        <v>4.636007991307297</v>
+        <v>7.273164446355749</v>
       </c>
       <c r="K21">
-        <v>14.81441915305813</v>
+        <v>20.64096350250992</v>
       </c>
       <c r="L21">
-        <v>9.91388679361601</v>
+        <v>14.64493387315208</v>
       </c>
       <c r="M21">
-        <v>12.44646572633173</v>
+        <v>21.15575196525722</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.96552825317928</v>
+        <v>21.16718382650514</v>
       </c>
       <c r="C22">
-        <v>16.67678384380472</v>
+        <v>13.26163263300686</v>
       </c>
       <c r="D22">
-        <v>8.639722806023693</v>
+        <v>12.50306935140294</v>
       </c>
       <c r="E22">
-        <v>6.092020112851358</v>
+        <v>11.29312252712238</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.164757182532616</v>
+        <v>3.883537480833822</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.14747032390797</v>
+        <v>68.70590173026285</v>
       </c>
       <c r="J22">
-        <v>4.663646385290927</v>
+        <v>7.278594545355918</v>
       </c>
       <c r="K22">
-        <v>15.19290495422293</v>
+        <v>20.63092153347362</v>
       </c>
       <c r="L22">
-        <v>10.03515632213186</v>
+        <v>14.64845886333791</v>
       </c>
       <c r="M22">
-        <v>12.56882200010254</v>
+        <v>21.11821342546606</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.76393100034737</v>
+        <v>21.19729268056617</v>
       </c>
       <c r="C23">
-        <v>16.37464846046607</v>
+        <v>13.17025924063464</v>
       </c>
       <c r="D23">
-        <v>8.568521016572273</v>
+        <v>12.50344406262174</v>
       </c>
       <c r="E23">
-        <v>6.109971068260176</v>
+        <v>11.30202416992092</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.17097082379359</v>
+        <v>3.885141832361216</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.74720627536635</v>
+        <v>68.2254748939912</v>
       </c>
       <c r="J23">
-        <v>4.648839486812186</v>
+        <v>7.275701712908286</v>
       </c>
       <c r="K23">
-        <v>14.98951162258489</v>
+        <v>20.63580913138224</v>
       </c>
       <c r="L23">
-        <v>9.96998671193753</v>
+        <v>14.64644220070778</v>
       </c>
       <c r="M23">
-        <v>12.50215897359246</v>
+        <v>21.13791300704769</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.05140057657428</v>
+        <v>21.32474790663565</v>
       </c>
       <c r="C24">
-        <v>15.21312205211151</v>
+        <v>12.8217607696577</v>
       </c>
       <c r="D24">
-        <v>8.309640120897626</v>
+        <v>12.5085307056376</v>
       </c>
       <c r="E24">
-        <v>6.180630122886973</v>
+        <v>11.33740193321648</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.194324604562705</v>
+        <v>3.891433546325729</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>79.37288253155049</v>
+        <v>66.37129031167935</v>
       </c>
       <c r="J24">
-        <v>4.593868566931889</v>
+        <v>7.264628334789823</v>
       </c>
       <c r="K24">
-        <v>14.24864075259164</v>
+        <v>20.66467492300623</v>
       </c>
       <c r="L24">
-        <v>9.732607208623893</v>
+        <v>14.6417804559659</v>
       </c>
       <c r="M24">
-        <v>12.2784098350134</v>
+        <v>21.21988501286267</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.38310997903783</v>
+        <v>21.49059497013924</v>
       </c>
       <c r="C25">
-        <v>13.91940829496027</v>
+        <v>12.44241122149737</v>
       </c>
       <c r="D25">
-        <v>8.051465898916371</v>
+        <v>12.52185893175084</v>
       </c>
       <c r="E25">
-        <v>6.26268900773478</v>
+        <v>11.37914079284232</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.219437161272276</v>
+        <v>3.898685302382134</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>73.40194968149964</v>
+        <v>64.30339493865202</v>
       </c>
       <c r="J25">
-        <v>4.536282861009536</v>
+        <v>7.25243024607187</v>
       </c>
       <c r="K25">
-        <v>13.5069967049863</v>
+        <v>20.71782827981118</v>
       </c>
       <c r="L25">
-        <v>9.494775898435753</v>
+        <v>14.64312968613135</v>
       </c>
       <c r="M25">
-        <v>12.09185427162531</v>
+        <v>21.32399394975226</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.63680145232487</v>
+        <v>11.96982898035611</v>
       </c>
       <c r="C2">
-        <v>12.1619385193875</v>
+        <v>12.92974642891006</v>
       </c>
       <c r="D2">
-        <v>12.53841595259499</v>
+        <v>7.877907443964789</v>
       </c>
       <c r="E2">
-        <v>11.41297947709919</v>
+        <v>6.32826321767974</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.904430652023717</v>
+        <v>2.238116321490452</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>62.72879921337066</v>
+        <v>68.84239402968463</v>
       </c>
       <c r="J2">
-        <v>7.243225392641117</v>
+        <v>4.494805366337206</v>
       </c>
       <c r="K2">
-        <v>20.77577049963612</v>
+        <v>13.00648173925912</v>
       </c>
       <c r="L2">
-        <v>14.64962145754878</v>
+        <v>9.333730413984428</v>
       </c>
       <c r="M2">
-        <v>21.41411060295107</v>
+        <v>11.99579668767396</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.75076131927398</v>
+        <v>11.7354012862633</v>
       </c>
       <c r="C3">
-        <v>11.97208812635933</v>
+        <v>12.23613894443153</v>
       </c>
       <c r="D3">
-        <v>12.55384038386518</v>
+        <v>7.769967455940982</v>
       </c>
       <c r="E3">
-        <v>11.43786491540894</v>
+        <v>6.375978589914477</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.908580487355095</v>
+        <v>2.250998634686361</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>61.63273878443471</v>
+        <v>65.64869256548346</v>
       </c>
       <c r="J3">
-        <v>7.236845207378141</v>
+        <v>4.467048865841908</v>
       </c>
       <c r="K3">
-        <v>20.82669145876357</v>
+        <v>12.69434786180476</v>
       </c>
       <c r="L3">
-        <v>14.6574557958328</v>
+        <v>9.232717860983074</v>
       </c>
       <c r="M3">
-        <v>21.48356447772231</v>
+        <v>11.95386454247238</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.82801760390798</v>
+        <v>11.61278762285443</v>
       </c>
       <c r="C4">
-        <v>11.85595966337181</v>
+        <v>11.7994218856804</v>
       </c>
       <c r="D4">
-        <v>12.56538285881444</v>
+        <v>7.708285878478646</v>
       </c>
       <c r="E4">
-        <v>11.45411273770534</v>
+        <v>6.406909938717012</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.911255819470507</v>
+        <v>2.259048458547422</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60.94673472976633</v>
+        <v>63.63742583555824</v>
       </c>
       <c r="J4">
-        <v>7.232856925650043</v>
+        <v>4.450118196742093</v>
       </c>
       <c r="K4">
-        <v>20.86367594471317</v>
+        <v>12.51569115039642</v>
       </c>
       <c r="L4">
-        <v>14.6639616645725</v>
+        <v>9.174521126549937</v>
       </c>
       <c r="M4">
-        <v>21.53033783491196</v>
+        <v>11.9387486584277</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.86132405356248</v>
+        <v>11.5679967212891</v>
       </c>
       <c r="C5">
-        <v>11.80879741261374</v>
+        <v>11.61884343362796</v>
       </c>
       <c r="D5">
-        <v>12.57060723956846</v>
+        <v>7.684280375739965</v>
       </c>
       <c r="E5">
-        <v>11.46097798719646</v>
+        <v>6.419928141629308</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.912378189355412</v>
+        <v>2.262368025361482</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>60.66410854421592</v>
+        <v>62.80544438611456</v>
       </c>
       <c r="J5">
-        <v>7.23121376520335</v>
+        <v>4.443238754591442</v>
       </c>
       <c r="K5">
-        <v>20.88018094927612</v>
+        <v>12.44610588086457</v>
       </c>
       <c r="L5">
-        <v>14.6670394494302</v>
+        <v>9.151742538281351</v>
       </c>
       <c r="M5">
-        <v>21.55043563516628</v>
+        <v>11.93514919724026</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86696449167817</v>
+        <v>11.56086604862667</v>
       </c>
       <c r="C6">
-        <v>11.80097735219987</v>
+        <v>11.58870480235378</v>
       </c>
       <c r="D6">
-        <v>12.57150618576614</v>
+        <v>7.680361823335204</v>
       </c>
       <c r="E6">
-        <v>11.46213272218223</v>
+        <v>6.422114847811808</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.912566503793927</v>
+        <v>2.262921714216517</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>60.61699897494812</v>
+        <v>62.66655798968207</v>
       </c>
       <c r="J6">
-        <v>7.230939835576406</v>
+        <v>4.442097407908137</v>
       </c>
       <c r="K6">
-        <v>20.88300803518332</v>
+        <v>12.43474424255847</v>
       </c>
       <c r="L6">
-        <v>14.66757628371041</v>
+        <v>9.148016062772918</v>
       </c>
       <c r="M6">
-        <v>21.55383548362649</v>
+        <v>11.93470293237185</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.82845941207459</v>
+        <v>11.61216286051122</v>
       </c>
       <c r="C7">
-        <v>11.85532289824388</v>
+        <v>11.79699694165148</v>
       </c>
       <c r="D7">
-        <v>12.56545120862508</v>
+        <v>7.707957588144423</v>
       </c>
       <c r="E7">
-        <v>11.45420433545891</v>
+        <v>6.407083829454254</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.911270825791076</v>
+        <v>2.259093063661279</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.94293531245862</v>
+        <v>63.62625507436201</v>
       </c>
       <c r="J7">
-        <v>7.232834838027554</v>
+        <v>4.450025347706687</v>
       </c>
       <c r="K7">
-        <v>20.86389273902239</v>
+        <v>12.51473973196895</v>
       </c>
       <c r="L7">
-        <v>14.66400144515624</v>
+        <v>9.174210164384872</v>
       </c>
       <c r="M7">
-        <v>21.5306046821806</v>
+        <v>11.93868989386453</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.67457822030063</v>
+        <v>11.88446325520251</v>
       </c>
       <c r="C8">
-        <v>12.09641683274433</v>
+        <v>12.69289549908958</v>
       </c>
       <c r="D8">
-        <v>12.54330416862887</v>
+        <v>7.839720935819811</v>
       </c>
       <c r="E8">
-        <v>11.42135947739801</v>
+        <v>6.344377932863762</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.905835172569901</v>
+        <v>2.242531596617769</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>62.35369733037022</v>
+        <v>67.75177405520076</v>
       </c>
       <c r="J8">
-        <v>7.2410401459104</v>
+        <v>4.485206492313874</v>
       </c>
       <c r="K8">
-        <v>20.79213849503649</v>
+        <v>12.89613144728672</v>
       </c>
       <c r="L8">
-        <v>14.65197097891904</v>
+        <v>9.298091869894005</v>
       </c>
       <c r="M8">
-        <v>21.43720094952474</v>
+        <v>11.97906283746177</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.43096590277708</v>
+        <v>12.59551841910352</v>
       </c>
       <c r="C9">
-        <v>12.57049955950812</v>
+        <v>14.36090520877478</v>
       </c>
       <c r="D9">
-        <v>12.51632157048008</v>
+        <v>8.135770502319687</v>
       </c>
       <c r="E9">
-        <v>11.36460037047252</v>
+        <v>6.234254920386274</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.896179873800516</v>
+        <v>2.21096410978565</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>65.00849353974999</v>
+        <v>75.43802261832863</v>
       </c>
       <c r="J9">
-        <v>7.256573557652494</v>
+        <v>4.555504489632438</v>
       </c>
       <c r="K9">
-        <v>20.69699276591504</v>
+        <v>13.74953156405493</v>
       </c>
       <c r="L9">
-        <v>14.6418218791825</v>
+        <v>9.572608997376458</v>
       </c>
       <c r="M9">
-        <v>21.28683139964363</v>
+        <v>12.14791444773487</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.28790729342845</v>
+        <v>13.23651898961851</v>
       </c>
       <c r="C10">
-        <v>12.91670345255705</v>
+        <v>15.53143430108622</v>
       </c>
       <c r="D10">
-        <v>12.50653313934361</v>
+        <v>8.378160760845777</v>
       </c>
       <c r="E10">
-        <v>11.32751931715049</v>
+        <v>6.160998377115677</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.889689495274411</v>
+        <v>2.188005666693404</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>66.880181086017</v>
+        <v>80.84433924862388</v>
       </c>
       <c r="J10">
-        <v>7.267653630233573</v>
+        <v>4.608625030841544</v>
       </c>
       <c r="K10">
-        <v>20.65510211853697</v>
+        <v>14.44497223670242</v>
       </c>
       <c r="L10">
-        <v>14.64254461553061</v>
+        <v>9.795516585298015</v>
       </c>
       <c r="M10">
-        <v>21.19639976140359</v>
+        <v>12.33453064687821</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.23072668120876</v>
+        <v>13.5563378532565</v>
       </c>
       <c r="C11">
-        <v>13.07315032705637</v>
+        <v>16.05268567520994</v>
       </c>
       <c r="D11">
-        <v>12.50425923004904</v>
+        <v>8.49435776770591</v>
       </c>
       <c r="E11">
-        <v>11.31164414188449</v>
+        <v>6.129291034332781</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.886866004047512</v>
+        <v>2.177527405736013</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>67.71245359176069</v>
+        <v>83.25611408085189</v>
       </c>
       <c r="J11">
-        <v>7.272623689201124</v>
+        <v>4.63329174657237</v>
       </c>
       <c r="K11">
-        <v>20.64216983310566</v>
+        <v>14.7775051990079</v>
       </c>
       <c r="L11">
-        <v>14.64464483363637</v>
+        <v>9.902059661995565</v>
       </c>
       <c r="M11">
-        <v>21.15962358061183</v>
+        <v>12.43493307966169</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.21021759964756</v>
+        <v>13.68173908295183</v>
       </c>
       <c r="C12">
-        <v>13.13219507257375</v>
+        <v>16.2485674883472</v>
       </c>
       <c r="D12">
-        <v>12.50371125436197</v>
+        <v>8.53926564606815</v>
       </c>
       <c r="E12">
-        <v>11.30577473489677</v>
+        <v>6.117513108688266</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.885815229153328</v>
+        <v>2.173546251745679</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>68.02469299511523</v>
+        <v>84.16316323408812</v>
       </c>
       <c r="J12">
-        <v>7.274495718417127</v>
+        <v>4.642722604918214</v>
       </c>
       <c r="K12">
-        <v>20.63815601478177</v>
+        <v>14.90590079152562</v>
       </c>
       <c r="L12">
-        <v>14.6456942952899</v>
+        <v>9.943197481469818</v>
       </c>
       <c r="M12">
-        <v>21.14632548260727</v>
+        <v>12.47536274417435</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.21458358758039</v>
+        <v>13.65453658064259</v>
       </c>
       <c r="C13">
-        <v>13.11948829884318</v>
+        <v>16.2064455158534</v>
       </c>
       <c r="D13">
-        <v>12.503815349993</v>
+        <v>8.529552634230548</v>
       </c>
       <c r="E13">
-        <v>11.30703250348178</v>
+        <v>6.120039574235405</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.886040715197688</v>
+        <v>2.174404401160199</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>67.95757927590003</v>
+        <v>83.96807956206513</v>
       </c>
       <c r="J13">
-        <v>7.274092987866101</v>
+        <v>4.640687175370318</v>
       </c>
       <c r="K13">
-        <v>20.63898113624968</v>
+        <v>14.87813572978863</v>
       </c>
       <c r="L13">
-        <v>14.64545698135291</v>
+        <v>9.934301526724916</v>
       </c>
       <c r="M13">
-        <v>21.14916150826519</v>
+        <v>12.4665452490011</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.2290164125703</v>
+        <v>13.56656716441583</v>
       </c>
       <c r="C14">
-        <v>13.07801221802306</v>
+        <v>16.06883035392676</v>
       </c>
       <c r="D14">
-        <v>12.50420787432732</v>
+        <v>8.498033849083216</v>
       </c>
       <c r="E14">
-        <v>11.31115841644589</v>
+        <v>6.128317490656117</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.886779187758004</v>
+        <v>2.177200192008125</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>67.73820124699591</v>
+        <v>83.33085837804231</v>
       </c>
       <c r="J14">
-        <v>7.272777902569666</v>
+        <v>4.63406570965396</v>
       </c>
       <c r="K14">
-        <v>20.64182189606887</v>
+        <v>14.78801783231383</v>
       </c>
       <c r="L14">
-        <v>14.64472608341736</v>
+        <v>9.905427877373379</v>
       </c>
       <c r="M14">
-        <v>21.15851694126031</v>
+        <v>12.43820986149416</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.23800615869476</v>
+        <v>13.51325005281074</v>
       </c>
       <c r="C15">
-        <v>13.05257969509678</v>
+        <v>15.98434517454063</v>
       </c>
       <c r="D15">
-        <v>12.50448907387152</v>
+        <v>8.478847529951148</v>
       </c>
       <c r="E15">
-        <v>11.31370415402452</v>
+        <v>6.133417657007565</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.88723391842464</v>
+        <v>2.178910697898238</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>67.60344024207296</v>
+        <v>82.93975111202184</v>
       </c>
       <c r="J15">
-        <v>7.271971072003944</v>
+        <v>4.630022188480013</v>
       </c>
       <c r="K15">
-        <v>20.64367705584487</v>
+        <v>14.73314510963175</v>
       </c>
       <c r="L15">
-        <v>14.64431146733515</v>
+        <v>9.887846853674336</v>
       </c>
       <c r="M15">
-        <v>21.1643292605218</v>
+        <v>12.42117307646699</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.29180381334193</v>
+        <v>13.21620514864169</v>
       </c>
       <c r="C16">
-        <v>12.90645412296134</v>
+        <v>15.49715170941619</v>
       </c>
       <c r="D16">
-        <v>12.50672557352182</v>
+        <v>8.370690714986845</v>
       </c>
       <c r="E16">
-        <v>11.32857672763091</v>
+        <v>6.16310277073384</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.889876601866278</v>
+        <v>2.188689071809431</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>66.82538985460508</v>
+        <v>80.68581371212584</v>
       </c>
       <c r="J16">
-        <v>7.267327417664321</v>
+        <v>4.60702457002989</v>
       </c>
       <c r="K16">
-        <v>20.65607074861505</v>
+        <v>14.4235774889727</v>
       </c>
       <c r="L16">
-        <v>14.64244295975583</v>
+        <v>9.788661505966187</v>
       </c>
       <c r="M16">
-        <v>21.19889102852091</v>
+        <v>12.32829605847235</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.32683563269461</v>
+        <v>13.04136151517299</v>
       </c>
       <c r="C17">
-        <v>12.81650874500025</v>
+        <v>15.19546238336805</v>
       </c>
       <c r="D17">
-        <v>12.50865554135057</v>
+        <v>8.305894184656269</v>
       </c>
       <c r="E17">
-        <v>11.33795448971448</v>
+        <v>6.18172540883704</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.891530752186312</v>
+        <v>2.194673458419942</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>66.34304943972137</v>
+        <v>79.29127637415257</v>
       </c>
       <c r="J17">
-        <v>7.264460737753726</v>
+        <v>4.593056698342999</v>
       </c>
       <c r="K17">
-        <v>20.66524447180388</v>
+        <v>14.23790201063814</v>
       </c>
       <c r="L17">
-        <v>14.6417500138921</v>
+        <v>9.729166009471626</v>
       </c>
       <c r="M17">
-        <v>21.22121142454469</v>
+        <v>12.27541265935281</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.3477278659952</v>
+        <v>12.94343686534082</v>
       </c>
       <c r="C18">
-        <v>12.76467915244355</v>
+        <v>15.02087252990251</v>
       </c>
       <c r="D18">
-        <v>12.50997071605211</v>
+        <v>8.269179552113414</v>
       </c>
       <c r="E18">
-        <v>11.34344185141988</v>
+        <v>6.19258913231958</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.892494327053639</v>
+        <v>2.198112853392408</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>66.06382529490503</v>
+        <v>78.48464849678294</v>
       </c>
       <c r="J18">
-        <v>7.262805275054244</v>
+        <v>4.585068760699948</v>
       </c>
       <c r="K18">
-        <v>20.67109723868179</v>
+        <v>14.13261775480754</v>
       </c>
       <c r="L18">
-        <v>14.64151822566452</v>
+        <v>9.695426012920807</v>
       </c>
       <c r="M18">
-        <v>21.23446000205558</v>
+        <v>12.24644358890399</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.35492894748175</v>
+        <v>12.91072830209951</v>
       </c>
       <c r="C19">
-        <v>12.74711566071784</v>
+        <v>14.96157368686979</v>
       </c>
       <c r="D19">
-        <v>12.51045124396249</v>
+        <v>8.256842408653249</v>
       </c>
       <c r="E19">
-        <v>11.34531585973499</v>
+        <v>6.196293695323913</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.892822667980687</v>
+        <v>2.199277148824482</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>65.96898182640911</v>
+        <v>78.21074545844959</v>
       </c>
       <c r="J19">
-        <v>7.262243623427139</v>
+        <v>4.582371584868531</v>
       </c>
       <c r="K19">
-        <v>20.67317777113909</v>
+        <v>14.09722608095181</v>
       </c>
       <c r="L19">
-        <v>14.64146840636268</v>
+        <v>9.684083253490309</v>
       </c>
       <c r="M19">
-        <v>21.23901620997746</v>
+        <v>12.23687873263398</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.32302949204742</v>
+        <v>13.05969903670438</v>
       </c>
       <c r="C20">
-        <v>12.82609381219631</v>
+        <v>15.22768741673318</v>
       </c>
       <c r="D20">
-        <v>12.50842886628847</v>
+        <v>8.312734132381754</v>
       </c>
       <c r="E20">
-        <v>11.33694653652797</v>
+        <v>6.179727241905698</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.891353408400076</v>
+        <v>2.194036742412634</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>66.39458239054147</v>
+        <v>79.44019202263348</v>
       </c>
       <c r="J20">
-        <v>7.264766585669151</v>
+        <v>4.594538719289117</v>
       </c>
       <c r="K20">
-        <v>20.66420824880956</v>
+        <v>14.25751012989334</v>
       </c>
       <c r="L20">
-        <v>14.6418065224245</v>
+        <v>9.735449351156536</v>
       </c>
       <c r="M20">
-        <v>21.21879288990705</v>
+        <v>12.28089108591223</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.22474602917885</v>
+        <v>13.5922873362979</v>
       </c>
       <c r="C21">
-        <v>13.09020050580623</v>
+        <v>16.10929099690058</v>
       </c>
       <c r="D21">
-        <v>12.50408408514499</v>
+        <v>8.507266592255339</v>
       </c>
       <c r="E21">
-        <v>11.30994268222421</v>
+        <v>6.125879882722952</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.886561781607022</v>
+        <v>2.176379433335405</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>67.80271854253898</v>
+        <v>83.51818913610525</v>
       </c>
       <c r="J21">
-        <v>7.273164446355749</v>
+        <v>4.636007991307296</v>
       </c>
       <c r="K21">
-        <v>20.64096350250992</v>
+        <v>14.81441915305811</v>
       </c>
       <c r="L21">
-        <v>14.64493387315208</v>
+        <v>9.913886793615998</v>
       </c>
       <c r="M21">
-        <v>21.15575196525722</v>
+        <v>12.44646572633172</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.16718382650514</v>
+        <v>13.96552825317924</v>
       </c>
       <c r="C22">
-        <v>13.26163263300686</v>
+        <v>16.67678384380486</v>
       </c>
       <c r="D22">
-        <v>12.50306935140294</v>
+        <v>8.639722806023709</v>
       </c>
       <c r="E22">
-        <v>11.29312252712238</v>
+        <v>6.092020112851347</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.883537480833822</v>
+        <v>2.164757182532564</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>68.70590173026285</v>
+        <v>86.14747032390866</v>
       </c>
       <c r="J22">
-        <v>7.278594545355918</v>
+        <v>4.663646385290927</v>
       </c>
       <c r="K22">
-        <v>20.63092153347362</v>
+        <v>15.19290495422295</v>
       </c>
       <c r="L22">
-        <v>14.64845886333791</v>
+        <v>10.03515632213189</v>
       </c>
       <c r="M22">
-        <v>21.11821342546606</v>
+        <v>12.56882200010251</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.19729268056617</v>
+        <v>13.76393100034737</v>
       </c>
       <c r="C23">
-        <v>13.17025924063464</v>
+        <v>16.37464846046611</v>
       </c>
       <c r="D23">
-        <v>12.50344406262174</v>
+        <v>8.568521016572223</v>
       </c>
       <c r="E23">
-        <v>11.30202416992092</v>
+        <v>6.10997106826016</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.885141832361216</v>
+        <v>2.17097082379374</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>68.2254748939912</v>
+        <v>84.7472062753663</v>
       </c>
       <c r="J23">
-        <v>7.275701712908286</v>
+        <v>4.648839486812287</v>
       </c>
       <c r="K23">
-        <v>20.63580913138224</v>
+        <v>14.98951162258489</v>
       </c>
       <c r="L23">
-        <v>14.64644220070778</v>
+        <v>9.969986711937553</v>
       </c>
       <c r="M23">
-        <v>21.13791300704769</v>
+        <v>12.50215897359247</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.32474790663565</v>
+        <v>13.05140057657435</v>
       </c>
       <c r="C24">
-        <v>12.8217607696577</v>
+        <v>15.21312205211146</v>
       </c>
       <c r="D24">
-        <v>12.5085307056376</v>
+        <v>8.309640120897614</v>
       </c>
       <c r="E24">
-        <v>11.33740193321648</v>
+        <v>6.180630122886939</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.891433546325729</v>
+        <v>2.194324604562442</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>66.37129031167935</v>
+        <v>79.37288253155003</v>
       </c>
       <c r="J24">
-        <v>7.264628334789823</v>
+        <v>4.593868566931923</v>
       </c>
       <c r="K24">
-        <v>20.66467492300623</v>
+        <v>14.24864075259168</v>
       </c>
       <c r="L24">
-        <v>14.6417804559659</v>
+        <v>9.732607208623866</v>
       </c>
       <c r="M24">
-        <v>21.21988501286267</v>
+        <v>12.27840983501346</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.49059497013924</v>
+        <v>12.38310997903791</v>
       </c>
       <c r="C25">
-        <v>12.44241122149737</v>
+        <v>13.91940829496026</v>
       </c>
       <c r="D25">
-        <v>12.52185893175084</v>
+        <v>8.051465898916405</v>
       </c>
       <c r="E25">
-        <v>11.37914079284232</v>
+        <v>6.262689007734654</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.898685302382134</v>
+        <v>2.219437161272271</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>64.30339493865202</v>
+        <v>73.40194968150004</v>
       </c>
       <c r="J25">
-        <v>7.25243024607187</v>
+        <v>4.536282861009367</v>
       </c>
       <c r="K25">
-        <v>20.71782827981118</v>
+        <v>13.50699670498638</v>
       </c>
       <c r="L25">
-        <v>14.64312968613135</v>
+        <v>9.494775898435741</v>
       </c>
       <c r="M25">
-        <v>21.32399394975226</v>
+        <v>12.09185427162534</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.96982898035611</v>
+        <v>20.60486418499037</v>
       </c>
       <c r="C2">
-        <v>12.92974642891006</v>
+        <v>15.6028376367056</v>
       </c>
       <c r="D2">
-        <v>7.877907443964789</v>
+        <v>10.7507298656566</v>
       </c>
       <c r="E2">
-        <v>6.32826321767974</v>
+        <v>10.98617589430273</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.238116321490452</v>
+        <v>23.13163128016869</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.975689821591272</v>
       </c>
       <c r="I2">
-        <v>68.84239402968463</v>
+        <v>2.529749054545662</v>
       </c>
       <c r="J2">
-        <v>4.494805366337206</v>
+        <v>9.047105016036209</v>
       </c>
       <c r="K2">
-        <v>13.00648173925912</v>
+        <v>12.85692610150307</v>
       </c>
       <c r="L2">
-        <v>9.333730413984428</v>
+        <v>5.842997134013694</v>
       </c>
       <c r="M2">
-        <v>11.99579668767396</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.33267603848207</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.87159032003905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.7354012862633</v>
+        <v>19.27959857192759</v>
       </c>
       <c r="C3">
-        <v>12.23613894443153</v>
+        <v>14.66012103623796</v>
       </c>
       <c r="D3">
-        <v>7.769967455940982</v>
+        <v>10.40497369733455</v>
       </c>
       <c r="E3">
-        <v>6.375978589914477</v>
+        <v>10.70521008514284</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.250998634686361</v>
+        <v>22.67462564540881</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.208944044036851</v>
       </c>
       <c r="I3">
-        <v>65.64869256548346</v>
+        <v>2.570521269183857</v>
       </c>
       <c r="J3">
-        <v>4.467048865841908</v>
+        <v>9.067054736035196</v>
       </c>
       <c r="K3">
-        <v>12.69434786180476</v>
+        <v>13.07816937833976</v>
       </c>
       <c r="L3">
-        <v>9.232717860983074</v>
+        <v>5.770408257234041</v>
       </c>
       <c r="M3">
-        <v>11.95386454247238</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.4263950240466</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.80003029759952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.61278762285443</v>
+        <v>18.41659380204143</v>
       </c>
       <c r="C4">
-        <v>11.7994218856804</v>
+        <v>14.05375962361575</v>
       </c>
       <c r="D4">
-        <v>7.708285878478646</v>
+        <v>10.18910405934682</v>
       </c>
       <c r="E4">
-        <v>6.406909938717012</v>
+        <v>10.52873271360973</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.259048458547422</v>
+        <v>22.40399602316898</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.357260585863921</v>
       </c>
       <c r="I4">
-        <v>63.63742583555824</v>
+        <v>2.671708129557206</v>
       </c>
       <c r="J4">
-        <v>4.450118196742093</v>
+        <v>9.08290285509066</v>
       </c>
       <c r="K4">
-        <v>12.51569115039642</v>
+        <v>13.21886661005029</v>
       </c>
       <c r="L4">
-        <v>9.174521126549937</v>
+        <v>5.724309534640107</v>
       </c>
       <c r="M4">
-        <v>11.9387486584277</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.84331718641338</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.76342608420235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.5679967212891</v>
+        <v>18.0517492769395</v>
       </c>
       <c r="C5">
-        <v>11.61884343362796</v>
+        <v>13.81254625048536</v>
       </c>
       <c r="D5">
-        <v>7.684280375739965</v>
+        <v>10.09991146973029</v>
       </c>
       <c r="E5">
-        <v>6.419928141629308</v>
+        <v>10.45512061799056</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.262368025361482</v>
+        <v>22.28086514412083</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.419191141889653</v>
       </c>
       <c r="I5">
-        <v>62.80544438611456</v>
+        <v>2.717023166017179</v>
       </c>
       <c r="J5">
-        <v>4.443238754591442</v>
+        <v>9.087709596044332</v>
       </c>
       <c r="K5">
-        <v>12.44610588086457</v>
+        <v>13.27253917479776</v>
       </c>
       <c r="L5">
-        <v>9.151742538281351</v>
+        <v>5.704856217259171</v>
       </c>
       <c r="M5">
-        <v>11.93514919724026</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.60147170382134</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.74395199734514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.56086604862667</v>
+        <v>17.98948959025715</v>
       </c>
       <c r="C6">
-        <v>11.58870480235378</v>
+        <v>13.78767514542076</v>
       </c>
       <c r="D6">
-        <v>7.680361823335204</v>
+        <v>10.08452703997899</v>
       </c>
       <c r="E6">
-        <v>6.422114847811808</v>
+        <v>10.44192208312141</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.262921714216517</v>
+        <v>22.24172995149522</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.429784392128222</v>
       </c>
       <c r="I6">
-        <v>62.66655798968207</v>
+        <v>2.72851602207141</v>
       </c>
       <c r="J6">
-        <v>4.442097407908137</v>
+        <v>9.085469199657206</v>
       </c>
       <c r="K6">
-        <v>12.43474424255847</v>
+        <v>13.27559968872546</v>
       </c>
       <c r="L6">
-        <v>9.148016062772918</v>
+        <v>5.701260540314249</v>
       </c>
       <c r="M6">
-        <v>11.93470293237185</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.56374750152012</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.73306235998867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.61216286051122</v>
+        <v>18.40925275448359</v>
       </c>
       <c r="C7">
-        <v>11.79699694165148</v>
+        <v>14.09220325082396</v>
       </c>
       <c r="D7">
-        <v>7.707957588144423</v>
+        <v>10.18648189272147</v>
       </c>
       <c r="E7">
-        <v>6.407083829454254</v>
+        <v>10.52526969818675</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.259093063661279</v>
+        <v>22.35120596128337</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.358706057121242</v>
       </c>
       <c r="I7">
-        <v>63.62625507436201</v>
+        <v>2.682664611682562</v>
       </c>
       <c r="J7">
-        <v>4.450025347706687</v>
+        <v>9.074537429260513</v>
       </c>
       <c r="K7">
-        <v>12.51473973196895</v>
+        <v>13.20338593205958</v>
       </c>
       <c r="L7">
-        <v>9.174210164384872</v>
+        <v>5.723128904415271</v>
       </c>
       <c r="M7">
-        <v>11.93868989386453</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.84762707729226</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.74201527468018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.88446325520251</v>
+        <v>20.15513058962432</v>
       </c>
       <c r="C8">
-        <v>12.69289549908958</v>
+        <v>15.33478745234638</v>
       </c>
       <c r="D8">
-        <v>7.839720935819811</v>
+        <v>10.63054178060142</v>
       </c>
       <c r="E8">
-        <v>6.344377932863762</v>
+        <v>10.88704811970282</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.242531596617769</v>
+        <v>22.90617331401484</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.055822284551007</v>
       </c>
       <c r="I8">
-        <v>67.75177405520076</v>
+        <v>2.481011960725417</v>
       </c>
       <c r="J8">
-        <v>4.485206492313874</v>
+        <v>9.042140581831168</v>
       </c>
       <c r="K8">
-        <v>12.89613144728672</v>
+        <v>12.9106752390388</v>
       </c>
       <c r="L8">
-        <v>9.298091869894005</v>
+        <v>5.817127427379532</v>
       </c>
       <c r="M8">
-        <v>11.97906283746177</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.03506042006467</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.81771039424691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.59551841910352</v>
+        <v>23.19260368709845</v>
       </c>
       <c r="C9">
-        <v>14.36090520877478</v>
+        <v>17.48430996632219</v>
       </c>
       <c r="D9">
-        <v>8.135770502319687</v>
+        <v>11.47104311387318</v>
       </c>
       <c r="E9">
-        <v>6.234254920386274</v>
+        <v>11.56703164372312</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.21096410978565</v>
+        <v>24.15918457452488</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.619254265889957</v>
       </c>
       <c r="I9">
-        <v>75.43802261832863</v>
+        <v>2.84681487807731</v>
       </c>
       <c r="J9">
-        <v>4.555504489632438</v>
+        <v>9.023453626731991</v>
       </c>
       <c r="K9">
-        <v>13.74953156405493</v>
+        <v>12.40575808684157</v>
       </c>
       <c r="L9">
-        <v>9.572608997376458</v>
+        <v>5.991021848908146</v>
       </c>
       <c r="M9">
-        <v>12.14791444773487</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.13538435788209</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.06393435975949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.23651898961851</v>
+        <v>25.21198476712</v>
       </c>
       <c r="C10">
-        <v>15.53143430108622</v>
+        <v>18.93919486258912</v>
       </c>
       <c r="D10">
-        <v>8.378160760845777</v>
+        <v>11.9517278597832</v>
       </c>
       <c r="E10">
-        <v>6.160998377115677</v>
+        <v>11.86644598419605</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.188005666693404</v>
+        <v>24.87025625652778</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.984982664242551</v>
       </c>
       <c r="I10">
-        <v>80.84433924862388</v>
+        <v>3.102320998555363</v>
       </c>
       <c r="J10">
-        <v>4.608625030841544</v>
+        <v>8.985837439907476</v>
       </c>
       <c r="K10">
-        <v>14.44497223670242</v>
+        <v>11.99763205218267</v>
       </c>
       <c r="L10">
-        <v>9.795516585298015</v>
+        <v>6.069581584957044</v>
       </c>
       <c r="M10">
-        <v>12.33453064687821</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.4402707501507</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.17538686365079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.5563378532565</v>
+        <v>26.28888614081446</v>
       </c>
       <c r="C11">
-        <v>16.05268567520994</v>
+        <v>19.57527886792809</v>
       </c>
       <c r="D11">
-        <v>8.49435776770591</v>
+        <v>11.20867236256792</v>
       </c>
       <c r="E11">
-        <v>6.129291034332781</v>
+        <v>10.5631010622424</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.177527405736013</v>
+        <v>23.15404624011151</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.879813988567349</v>
       </c>
       <c r="I11">
-        <v>83.25611408085189</v>
+        <v>3.187695835819875</v>
       </c>
       <c r="J11">
-        <v>4.63329174657237</v>
+        <v>8.616152951004509</v>
       </c>
       <c r="K11">
-        <v>14.7775051990079</v>
+        <v>11.3334918773297</v>
       </c>
       <c r="L11">
-        <v>9.902059661995565</v>
+        <v>5.840905026702479</v>
       </c>
       <c r="M11">
-        <v>12.43493307966169</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.11308570916014</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.3459307961619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.68173908295183</v>
+        <v>26.79436602755208</v>
       </c>
       <c r="C12">
-        <v>16.2485674883472</v>
+        <v>19.76619294419562</v>
       </c>
       <c r="D12">
-        <v>8.53926564606815</v>
+        <v>10.4804622890934</v>
       </c>
       <c r="E12">
-        <v>6.117513108688266</v>
+        <v>9.545041286237032</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.173546251745679</v>
+        <v>21.59964916179656</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.147483391903527</v>
       </c>
       <c r="I12">
-        <v>84.16316323408812</v>
+        <v>3.205206196737673</v>
       </c>
       <c r="J12">
-        <v>4.642722604918214</v>
+        <v>8.323940344672586</v>
       </c>
       <c r="K12">
-        <v>14.90590079152562</v>
+        <v>10.91737506378848</v>
       </c>
       <c r="L12">
-        <v>9.943197481469818</v>
+        <v>5.775134556978873</v>
       </c>
       <c r="M12">
-        <v>12.47536274417435</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.54746488083812</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.64697799232475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.65453658064259</v>
+        <v>26.90488062564917</v>
       </c>
       <c r="C13">
-        <v>16.2064455158534</v>
+        <v>19.68168782752965</v>
       </c>
       <c r="D13">
-        <v>8.529552634230548</v>
+        <v>9.707626909505148</v>
       </c>
       <c r="E13">
-        <v>6.120039574235405</v>
+        <v>8.724105067535266</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.174404401160199</v>
+        <v>19.97897911171312</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.474055564857493</v>
       </c>
       <c r="I13">
-        <v>83.96807956206513</v>
+        <v>3.175685351253888</v>
       </c>
       <c r="J13">
-        <v>4.640687175370318</v>
+        <v>8.061739804505731</v>
       </c>
       <c r="K13">
-        <v>14.87813572978863</v>
+        <v>10.64948250559726</v>
       </c>
       <c r="L13">
-        <v>9.934301526724916</v>
+        <v>5.829438396318588</v>
       </c>
       <c r="M13">
-        <v>12.4665452490011</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.75663330282395</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.97303504065108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.56656716441583</v>
+        <v>26.80498892007595</v>
       </c>
       <c r="C14">
-        <v>16.06883035392676</v>
+        <v>19.50663844705979</v>
       </c>
       <c r="D14">
-        <v>8.498033849083216</v>
+        <v>9.145379508739248</v>
       </c>
       <c r="E14">
-        <v>6.128317490656117</v>
+        <v>8.29891251256109</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.177200192008125</v>
+        <v>18.79848200445378</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.452985979064568</v>
       </c>
       <c r="I14">
-        <v>83.33085837804231</v>
+        <v>3.134969767955659</v>
       </c>
       <c r="J14">
-        <v>4.63406570965396</v>
+        <v>7.892318832863543</v>
       </c>
       <c r="K14">
-        <v>14.78801783231383</v>
+        <v>10.53650542721761</v>
       </c>
       <c r="L14">
-        <v>9.905427877373379</v>
+        <v>5.937293613557581</v>
       </c>
       <c r="M14">
-        <v>12.43820986149416</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.09167962765639</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.51193554131154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.51325005281074</v>
+        <v>26.69473961016278</v>
       </c>
       <c r="C15">
-        <v>15.98434517454063</v>
+        <v>19.41727726204076</v>
       </c>
       <c r="D15">
-        <v>8.478847529951148</v>
+        <v>8.99857026253515</v>
       </c>
       <c r="E15">
-        <v>6.133417657007565</v>
+        <v>8.21864120284028</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.178910697898238</v>
+        <v>18.48364948833727</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.692546651523745</v>
       </c>
       <c r="I15">
-        <v>82.93975111202184</v>
+        <v>3.116011891467227</v>
       </c>
       <c r="J15">
-        <v>4.630022188480013</v>
+        <v>7.85541518480349</v>
       </c>
       <c r="K15">
-        <v>14.73314510963175</v>
+        <v>10.53355871502002</v>
       </c>
       <c r="L15">
-        <v>9.887846853674336</v>
+        <v>5.968580702008939</v>
       </c>
       <c r="M15">
-        <v>12.42117307646699</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.88274635364727</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.40011112233387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.21620514864169</v>
+        <v>25.8607141403334</v>
       </c>
       <c r="C16">
-        <v>15.49715170941619</v>
+        <v>18.85557689305609</v>
       </c>
       <c r="D16">
-        <v>8.370690714986845</v>
+        <v>8.923517431075553</v>
       </c>
       <c r="E16">
-        <v>6.16310277073384</v>
+        <v>8.238295532845642</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.188689071809431</v>
+        <v>18.42325141093508</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.484904690424502</v>
       </c>
       <c r="I16">
-        <v>80.68581371212584</v>
+        <v>3.015061129865794</v>
       </c>
       <c r="J16">
-        <v>4.60702457002989</v>
+        <v>7.921496426999005</v>
       </c>
       <c r="K16">
-        <v>14.4235774889727</v>
+        <v>10.76365088282095</v>
       </c>
       <c r="L16">
-        <v>9.788661505966187</v>
+        <v>5.9160484955593</v>
       </c>
       <c r="M16">
-        <v>12.32829605847235</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>16.45219881339528</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.47318518621674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.04136151517299</v>
+        <v>25.26098176164388</v>
       </c>
       <c r="C17">
-        <v>15.19546238336805</v>
+        <v>18.51451372807978</v>
       </c>
       <c r="D17">
-        <v>8.305894184656269</v>
+        <v>9.169311754304514</v>
       </c>
       <c r="E17">
-        <v>6.18172540883704</v>
+        <v>8.451045482071331</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.194673458419942</v>
+        <v>19.01509795284454</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.743847277139756</v>
       </c>
       <c r="I17">
-        <v>79.29127637415257</v>
+        <v>2.959329869858467</v>
       </c>
       <c r="J17">
-        <v>4.593056698342999</v>
+        <v>8.06075350868805</v>
       </c>
       <c r="K17">
-        <v>14.23790201063814</v>
+        <v>10.9930925861293</v>
       </c>
       <c r="L17">
-        <v>9.729166009471626</v>
+        <v>5.806627862813796</v>
       </c>
       <c r="M17">
-        <v>12.27541265935281</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.48780538987948</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.77249744729146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.94343686534082</v>
+        <v>24.80928050096311</v>
       </c>
       <c r="C18">
-        <v>15.02087252990251</v>
+        <v>18.30357498033622</v>
       </c>
       <c r="D18">
-        <v>8.269179552113414</v>
+        <v>9.727448138500561</v>
       </c>
       <c r="E18">
-        <v>6.19258913231958</v>
+        <v>8.997808203713319</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.198112853392408</v>
+        <v>20.2673107977957</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.476540683369248</v>
       </c>
       <c r="I18">
-        <v>78.48464849678294</v>
+        <v>2.93413215578723</v>
       </c>
       <c r="J18">
-        <v>4.585068760699948</v>
+        <v>8.28654024665304</v>
       </c>
       <c r="K18">
-        <v>14.13261775480754</v>
+        <v>11.2789786344261</v>
       </c>
       <c r="L18">
-        <v>9.695426012920807</v>
+        <v>5.705117730150047</v>
       </c>
       <c r="M18">
-        <v>12.24644358890399</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.92636113423989</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.31788443322059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.91072830209951</v>
+        <v>24.51504777354222</v>
       </c>
       <c r="C19">
-        <v>14.96157368686979</v>
+        <v>18.28036609003864</v>
       </c>
       <c r="D19">
-        <v>8.256842408653249</v>
+        <v>10.50000622265799</v>
       </c>
       <c r="E19">
-        <v>6.196293695323913</v>
+        <v>9.938731956982121</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.199277148824482</v>
+        <v>21.87420929079629</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.953242412602349</v>
       </c>
       <c r="I19">
-        <v>78.21074545844959</v>
+        <v>2.946186019634468</v>
       </c>
       <c r="J19">
-        <v>4.582371584868531</v>
+        <v>8.556932939565327</v>
       </c>
       <c r="K19">
-        <v>14.09722608095181</v>
+        <v>11.60294445020223</v>
       </c>
       <c r="L19">
-        <v>9.684083253490309</v>
+        <v>5.723338870614265</v>
       </c>
       <c r="M19">
-        <v>12.23687873263398</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.65671756857429</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.99565202301118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.05969903670438</v>
+        <v>24.69304827341679</v>
       </c>
       <c r="C20">
-        <v>15.22768741673318</v>
+        <v>18.66829886857189</v>
       </c>
       <c r="D20">
-        <v>8.312734132381754</v>
+        <v>11.81824006737947</v>
       </c>
       <c r="E20">
-        <v>6.179727241905698</v>
+        <v>11.77447259502617</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.194036742412634</v>
+        <v>24.52724585677413</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.886979412062312</v>
       </c>
       <c r="I20">
-        <v>79.44019202263348</v>
+        <v>3.045786626302156</v>
       </c>
       <c r="J20">
-        <v>4.594538719289117</v>
+        <v>8.967030888364553</v>
       </c>
       <c r="K20">
-        <v>14.25751012989334</v>
+        <v>12.04974778190143</v>
       </c>
       <c r="L20">
-        <v>9.735449351156536</v>
+        <v>6.044948844569998</v>
       </c>
       <c r="M20">
-        <v>12.28089108591223</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.11975140439642</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.0763517615637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.5922873362979</v>
+        <v>26.13187899996541</v>
       </c>
       <c r="C21">
-        <v>16.10929099690058</v>
+        <v>19.723019043853</v>
       </c>
       <c r="D21">
-        <v>8.507266592255339</v>
+        <v>12.35183678712611</v>
       </c>
       <c r="E21">
-        <v>6.125879882722952</v>
+        <v>12.27156435164645</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.176379433335405</v>
+        <v>25.47607753919005</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.178387593954887</v>
       </c>
       <c r="I21">
-        <v>83.51818913610525</v>
+        <v>3.242753816428598</v>
       </c>
       <c r="J21">
-        <v>4.636007991307296</v>
+        <v>9.012472350839417</v>
       </c>
       <c r="K21">
-        <v>14.81441915305811</v>
+        <v>11.84227285195575</v>
       </c>
       <c r="L21">
-        <v>9.913886793615998</v>
+        <v>6.168580239812319</v>
       </c>
       <c r="M21">
-        <v>12.44646572633172</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.23515350181042</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.3434912243226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.96552825317924</v>
+        <v>27.04501427902938</v>
       </c>
       <c r="C22">
-        <v>16.67678384380486</v>
+        <v>20.34630894350174</v>
       </c>
       <c r="D22">
-        <v>8.639722806023709</v>
+        <v>12.6390273193512</v>
       </c>
       <c r="E22">
-        <v>6.092020112851347</v>
+        <v>12.50366271060777</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.164757182532564</v>
+        <v>26.04079979371764</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.359629387283955</v>
       </c>
       <c r="I22">
-        <v>86.14747032390866</v>
+        <v>3.363902160247402</v>
       </c>
       <c r="J22">
-        <v>4.663646385290927</v>
+        <v>9.036588696312183</v>
       </c>
       <c r="K22">
-        <v>15.19290495422295</v>
+        <v>11.70614174596527</v>
       </c>
       <c r="L22">
-        <v>10.03515632213189</v>
+        <v>6.227666094299271</v>
       </c>
       <c r="M22">
-        <v>12.56882200010251</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.87756836565351</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.50065016903222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.76393100034737</v>
+        <v>26.56357703555012</v>
       </c>
       <c r="C23">
-        <v>16.37464846046611</v>
+        <v>19.97950281914393</v>
       </c>
       <c r="D23">
-        <v>8.568521016572223</v>
+        <v>12.48758391103208</v>
       </c>
       <c r="E23">
-        <v>6.10997106826016</v>
+        <v>12.38255124714322</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.17097082379374</v>
+        <v>25.79073623881822</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.263730954803601</v>
       </c>
       <c r="I23">
-        <v>84.7472062753663</v>
+        <v>3.29565494444163</v>
       </c>
       <c r="J23">
-        <v>4.648839486812287</v>
+        <v>9.032921242024512</v>
       </c>
       <c r="K23">
-        <v>14.98951162258489</v>
+        <v>11.79786937582743</v>
       </c>
       <c r="L23">
-        <v>9.969986711937553</v>
+        <v>6.197119394662912</v>
       </c>
       <c r="M23">
-        <v>12.50215897359247</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.5305142496511</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.43926555860894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.05140057657435</v>
+        <v>24.65239247089851</v>
       </c>
       <c r="C24">
-        <v>15.21312205211146</v>
+        <v>18.59578621321377</v>
       </c>
       <c r="D24">
-        <v>8.309640120897614</v>
+        <v>11.90058174569457</v>
       </c>
       <c r="E24">
-        <v>6.180630122886939</v>
+        <v>11.91074558258081</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.194324604562442</v>
+        <v>24.77764578449382</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.89249126072601</v>
       </c>
       <c r="I24">
-        <v>79.37288253155003</v>
+        <v>3.039229535569268</v>
       </c>
       <c r="J24">
-        <v>4.593868566931923</v>
+        <v>9.012797378869621</v>
       </c>
       <c r="K24">
-        <v>14.24864075259168</v>
+        <v>12.12659668855251</v>
       </c>
       <c r="L24">
-        <v>9.732607208623866</v>
+        <v>6.077694272844381</v>
       </c>
       <c r="M24">
-        <v>12.27840983501346</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.17462897073409</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.18732248206698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.38310997903791</v>
+        <v>22.4087935298309</v>
       </c>
       <c r="C25">
-        <v>13.91940829496026</v>
+        <v>16.99023327359163</v>
       </c>
       <c r="D25">
-        <v>8.051465898916405</v>
+        <v>11.24547996937707</v>
       </c>
       <c r="E25">
-        <v>6.262689007734654</v>
+        <v>11.38300300463449</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.219437161272271</v>
+        <v>23.72628863664522</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.647497348503262</v>
       </c>
       <c r="I25">
-        <v>73.40194968150004</v>
+        <v>2.755187409765343</v>
       </c>
       <c r="J25">
-        <v>4.536282861009367</v>
+        <v>9.010130837295147</v>
       </c>
       <c r="K25">
-        <v>13.50699670498638</v>
+        <v>12.50830791453621</v>
       </c>
       <c r="L25">
-        <v>9.494775898435741</v>
+        <v>5.943757004540617</v>
       </c>
       <c r="M25">
-        <v>12.09185427162534</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>17.60238547279726</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.95348422541626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.60486418499037</v>
+        <v>20.62185349703001</v>
       </c>
       <c r="C2">
-        <v>15.6028376367056</v>
+        <v>15.8720793561528</v>
       </c>
       <c r="D2">
-        <v>10.7507298656566</v>
+        <v>10.74448458916893</v>
       </c>
       <c r="E2">
-        <v>10.98617589430273</v>
+        <v>10.97893953648845</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.13163128016869</v>
+        <v>21.94337631240178</v>
       </c>
       <c r="H2">
-        <v>1.975689821591272</v>
+        <v>1.95572549557365</v>
       </c>
       <c r="I2">
-        <v>2.529749054545662</v>
+        <v>2.59546594638169</v>
       </c>
       <c r="J2">
-        <v>9.047105016036209</v>
+        <v>9.388263852264636</v>
       </c>
       <c r="K2">
-        <v>12.85692610150307</v>
+        <v>12.52895205115398</v>
       </c>
       <c r="L2">
-        <v>5.842997134013694</v>
+        <v>10.97648839771384</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.529782857622969</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.844337863975701</v>
       </c>
       <c r="O2">
-        <v>16.33267603848207</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.87159032003905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.41820672543549</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.60885737423493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.27959857192759</v>
+        <v>19.31021296501587</v>
       </c>
       <c r="C3">
-        <v>14.66012103623796</v>
+        <v>14.82748705730403</v>
       </c>
       <c r="D3">
-        <v>10.40497369733455</v>
+        <v>10.40601065854933</v>
       </c>
       <c r="E3">
-        <v>10.70521008514284</v>
+        <v>10.7128220278493</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.67462564540881</v>
+        <v>21.58335667399268</v>
       </c>
       <c r="H3">
-        <v>2.208944044036851</v>
+        <v>2.178393179410069</v>
       </c>
       <c r="I3">
-        <v>2.570521269183857</v>
+        <v>2.489926250558562</v>
       </c>
       <c r="J3">
-        <v>9.067054736035196</v>
+        <v>9.384231173818309</v>
       </c>
       <c r="K3">
-        <v>13.07816937833976</v>
+        <v>12.75833063139696</v>
       </c>
       <c r="L3">
-        <v>5.770408257234041</v>
+        <v>11.18080645988764</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.703979123632025</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.779351588276373</v>
       </c>
       <c r="O3">
-        <v>15.4263950240466</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.80003029759952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.49747754618233</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.566701647469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.41659380204143</v>
+        <v>18.45627764425769</v>
       </c>
       <c r="C4">
-        <v>14.05375962361575</v>
+        <v>14.15421811147296</v>
       </c>
       <c r="D4">
-        <v>10.18910405934682</v>
+        <v>10.19489794059419</v>
       </c>
       <c r="E4">
-        <v>10.52873271360973</v>
+        <v>10.54594019646538</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.40399602316898</v>
+        <v>21.37421849544012</v>
       </c>
       <c r="H4">
-        <v>2.357260585863921</v>
+        <v>2.320030200091216</v>
       </c>
       <c r="I4">
-        <v>2.671708129557206</v>
+        <v>2.579950821808968</v>
       </c>
       <c r="J4">
-        <v>9.08290285509066</v>
+        <v>9.383100241068023</v>
       </c>
       <c r="K4">
-        <v>13.21886661005029</v>
+        <v>12.90270341539098</v>
       </c>
       <c r="L4">
-        <v>5.724309534640107</v>
+        <v>11.31095517352006</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.829852040748864</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.738066309434884</v>
       </c>
       <c r="O4">
-        <v>14.84331718641338</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.76342608420235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.90484430119693</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.54667013670397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0517492769395</v>
+        <v>18.09534026676759</v>
       </c>
       <c r="C5">
-        <v>13.81254625048536</v>
+        <v>13.88447298457123</v>
       </c>
       <c r="D5">
-        <v>10.09991146973029</v>
+        <v>10.10772941816309</v>
       </c>
       <c r="E5">
-        <v>10.45512061799056</v>
+        <v>10.47638324476796</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.28086514412083</v>
+        <v>21.27683640082249</v>
       </c>
       <c r="H5">
-        <v>2.419191141889653</v>
+        <v>2.379184694162642</v>
       </c>
       <c r="I5">
-        <v>2.717023166017179</v>
+        <v>2.621229857276149</v>
       </c>
       <c r="J5">
-        <v>9.087709596044332</v>
+        <v>9.380540184769412</v>
       </c>
       <c r="K5">
-        <v>13.27253917479776</v>
+        <v>12.95786191342013</v>
       </c>
       <c r="L5">
-        <v>5.704856217259171</v>
+        <v>11.3605216882777</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.883696650538729</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.720622256034648</v>
       </c>
       <c r="O5">
-        <v>14.60147170382134</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.74395199734514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.65886305823446</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.53380873925024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.98948959025715</v>
+        <v>18.03376312282653</v>
       </c>
       <c r="C6">
-        <v>13.78767514542076</v>
+        <v>13.8545910071159</v>
       </c>
       <c r="D6">
-        <v>10.08452703997899</v>
+        <v>10.09270377185189</v>
       </c>
       <c r="E6">
-        <v>10.44192208312141</v>
+        <v>10.46389875468819</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.24172995149522</v>
+        <v>21.24236315714886</v>
       </c>
       <c r="H6">
-        <v>2.429784392128222</v>
+        <v>2.389305300833164</v>
       </c>
       <c r="I6">
-        <v>2.72851602207141</v>
+        <v>2.63276721639415</v>
       </c>
       <c r="J6">
-        <v>9.085469199657206</v>
+        <v>9.377166476625666</v>
       </c>
       <c r="K6">
-        <v>13.27559968872546</v>
+        <v>12.96152065533606</v>
       </c>
       <c r="L6">
-        <v>5.701260540314249</v>
+        <v>11.36315809577862</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.890439775065544</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.717375881753594</v>
       </c>
       <c r="O6">
-        <v>14.56374750152012</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.73306235998867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.62034913098698</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.52428206028515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.40925275448359</v>
+        <v>18.44905729700222</v>
       </c>
       <c r="C7">
-        <v>14.09220325082396</v>
+        <v>14.18515148783396</v>
       </c>
       <c r="D7">
-        <v>10.18648189272147</v>
+        <v>10.19222876521183</v>
       </c>
       <c r="E7">
-        <v>10.52526969818675</v>
+        <v>10.54224355969028</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.35120596128337</v>
+        <v>21.40129536183743</v>
       </c>
       <c r="H7">
-        <v>2.358706057121242</v>
+        <v>2.321990481594209</v>
       </c>
       <c r="I7">
-        <v>2.682664611682562</v>
+        <v>2.593242510907772</v>
       </c>
       <c r="J7">
-        <v>9.074537429260513</v>
+        <v>9.337318940099387</v>
       </c>
       <c r="K7">
-        <v>13.20338593205958</v>
+        <v>12.88294390709838</v>
       </c>
       <c r="L7">
-        <v>5.723128904415271</v>
+        <v>11.29120902515691</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.820715198462998</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.736636797022234</v>
       </c>
       <c r="O7">
-        <v>14.84762707729226</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.74201527468018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.90785685805934</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.5143220363634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.15513058962432</v>
+        <v>20.17681477718142</v>
       </c>
       <c r="C8">
-        <v>15.33478745234638</v>
+        <v>15.54885838296583</v>
       </c>
       <c r="D8">
-        <v>10.63054178060142</v>
+        <v>10.62648378196489</v>
       </c>
       <c r="E8">
-        <v>10.88704811970282</v>
+        <v>10.88387469873218</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.90617331401484</v>
+        <v>22.00901484336841</v>
       </c>
       <c r="H8">
-        <v>2.055822284551007</v>
+        <v>2.033984467864394</v>
       </c>
       <c r="I8">
-        <v>2.481011960725417</v>
+        <v>2.552107226151207</v>
       </c>
       <c r="J8">
-        <v>9.042140581831168</v>
+        <v>9.2530320263799</v>
       </c>
       <c r="K8">
-        <v>12.9106752390388</v>
+        <v>12.56998839857035</v>
       </c>
       <c r="L8">
-        <v>5.817127427379532</v>
+        <v>11.01251290159913</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.562786722768837</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.820166119385641</v>
       </c>
       <c r="O8">
-        <v>16.03506042006467</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.81771039424691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.11231052199091</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.52772225031484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.19260368709845</v>
+        <v>23.18355141069053</v>
       </c>
       <c r="C9">
-        <v>17.48430996632219</v>
+        <v>17.92671259227357</v>
       </c>
       <c r="D9">
-        <v>11.47104311387318</v>
+        <v>11.45040569421191</v>
       </c>
       <c r="E9">
-        <v>11.56703164372312</v>
+        <v>11.52945286416365</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.15918457452488</v>
+        <v>23.09052098081153</v>
       </c>
       <c r="H9">
-        <v>1.619254265889957</v>
+        <v>1.615388273677841</v>
       </c>
       <c r="I9">
-        <v>2.84681487807731</v>
+        <v>2.876899702274012</v>
       </c>
       <c r="J9">
-        <v>9.023453626731991</v>
+        <v>9.247260021528959</v>
       </c>
       <c r="K9">
-        <v>12.40575808684157</v>
+        <v>12.03061098797748</v>
       </c>
       <c r="L9">
-        <v>5.991021848908146</v>
+        <v>10.54592323179296</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.241869851106244</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.975736619524976</v>
       </c>
       <c r="O9">
-        <v>18.13538435788209</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.06393435975949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.24442619972736</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.68188334225528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.21198476712</v>
+        <v>25.18368504054279</v>
       </c>
       <c r="C10">
-        <v>18.93919486258912</v>
+        <v>19.48568936183727</v>
       </c>
       <c r="D10">
-        <v>11.9517278597832</v>
+        <v>11.92059566651542</v>
       </c>
       <c r="E10">
-        <v>11.86644598419605</v>
+        <v>11.80593377972569</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.87025625652778</v>
+        <v>24.12768496596174</v>
       </c>
       <c r="H10">
-        <v>1.984982664242551</v>
+        <v>1.961267670477467</v>
       </c>
       <c r="I10">
-        <v>3.102320998555363</v>
+        <v>3.102960196803952</v>
       </c>
       <c r="J10">
-        <v>8.985837439907476</v>
+        <v>9.007473230803651</v>
       </c>
       <c r="K10">
-        <v>11.99763205218267</v>
+        <v>11.5716209134182</v>
       </c>
       <c r="L10">
-        <v>6.069581584957044</v>
+        <v>10.17406236640126</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.03772862860133</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.040935940500193</v>
       </c>
       <c r="O10">
-        <v>19.4402707501507</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.17538686365079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.56163781149135</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.66438860257628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.28888614081446</v>
+        <v>26.25986948920063</v>
       </c>
       <c r="C11">
-        <v>19.57527886792809</v>
+        <v>19.99800992146602</v>
       </c>
       <c r="D11">
-        <v>11.20867236256792</v>
+        <v>11.17730407653617</v>
       </c>
       <c r="E11">
-        <v>10.5631010622424</v>
+        <v>10.49873517867438</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.15404624011151</v>
+        <v>23.42738684033834</v>
       </c>
       <c r="H11">
-        <v>2.879813988567349</v>
+        <v>2.85663755657167</v>
       </c>
       <c r="I11">
-        <v>3.187695835819875</v>
+        <v>3.177511370280867</v>
       </c>
       <c r="J11">
-        <v>8.616152951004509</v>
+        <v>8.316538997817965</v>
       </c>
       <c r="K11">
-        <v>11.3334918773297</v>
+        <v>10.95298128548733</v>
       </c>
       <c r="L11">
-        <v>5.840905026702479</v>
+        <v>9.771223426905696</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.544121791258978</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.809854797058129</v>
       </c>
       <c r="O11">
-        <v>19.11308570916014</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.3459307961619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.2101491372816</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.76053959143631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.79436602755208</v>
+        <v>26.76841905898345</v>
       </c>
       <c r="C12">
-        <v>19.76619294419562</v>
+        <v>20.08043067788074</v>
       </c>
       <c r="D12">
-        <v>10.4804622890934</v>
+        <v>10.45088654274099</v>
       </c>
       <c r="E12">
-        <v>9.545041286237032</v>
+        <v>9.481655186071993</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>21.59964916179656</v>
+        <v>22.39615475896746</v>
       </c>
       <c r="H12">
-        <v>4.147483391903527</v>
+        <v>4.130274421019589</v>
       </c>
       <c r="I12">
-        <v>3.205206196737673</v>
+        <v>3.19121897200722</v>
       </c>
       <c r="J12">
-        <v>8.323940344672586</v>
+        <v>7.958328395046838</v>
       </c>
       <c r="K12">
-        <v>10.91737506378848</v>
+        <v>10.60704181222089</v>
       </c>
       <c r="L12">
-        <v>5.775134556978873</v>
+        <v>9.573863681633</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.218146929623217</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.745092287834112</v>
       </c>
       <c r="O12">
-        <v>18.54746488083812</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.64697799232475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.62473413239776</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.07044964754452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.90488062564917</v>
+        <v>26.88501066408615</v>
       </c>
       <c r="C13">
-        <v>19.68168782752965</v>
+        <v>19.90124283682664</v>
       </c>
       <c r="D13">
-        <v>9.707626909505148</v>
+        <v>9.681653851171529</v>
       </c>
       <c r="E13">
-        <v>8.724105067535266</v>
+        <v>8.667299760520173</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>19.97897911171312</v>
+        <v>20.76631132535531</v>
       </c>
       <c r="H13">
-        <v>5.474055564857493</v>
+        <v>5.462459476654335</v>
       </c>
       <c r="I13">
-        <v>3.175685351253888</v>
+        <v>3.165288882308768</v>
       </c>
       <c r="J13">
-        <v>8.061739804505731</v>
+        <v>7.832584659025555</v>
       </c>
       <c r="K13">
-        <v>10.64948250559726</v>
+        <v>10.42963280067198</v>
       </c>
       <c r="L13">
-        <v>5.829438396318588</v>
+        <v>9.483918173823799</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.005622065987247</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.803688622419205</v>
       </c>
       <c r="O13">
-        <v>17.75663330282395</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.97303504065108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.81749864214765</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.49504181210016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.80498892007595</v>
+        <v>26.79076460872402</v>
       </c>
       <c r="C14">
-        <v>19.50663844705979</v>
+        <v>19.66403632533169</v>
       </c>
       <c r="D14">
-        <v>9.145379508739248</v>
+        <v>9.122830493012074</v>
       </c>
       <c r="E14">
-        <v>8.29891251256109</v>
+        <v>8.249877707228737</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>18.79848200445378</v>
+        <v>19.34737682701534</v>
       </c>
       <c r="H14">
-        <v>6.452985979064568</v>
+        <v>6.459230561183382</v>
       </c>
       <c r="I14">
-        <v>3.134969767955659</v>
+        <v>3.130687623845797</v>
       </c>
       <c r="J14">
-        <v>7.892318832863543</v>
+        <v>7.826582680608432</v>
       </c>
       <c r="K14">
-        <v>10.53650542721761</v>
+        <v>10.37895672179961</v>
       </c>
       <c r="L14">
-        <v>5.937293613557581</v>
+        <v>9.46024533188338</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.916527136513006</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.915834640153123</v>
       </c>
       <c r="O14">
-        <v>17.09167962765639</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.51193554131154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.14209655455899</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.138367876574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.69473961016278</v>
+        <v>26.68259235523294</v>
       </c>
       <c r="C15">
-        <v>19.41727726204076</v>
+        <v>19.56111109809241</v>
       </c>
       <c r="D15">
-        <v>8.99857026253515</v>
+        <v>8.977341319631503</v>
       </c>
       <c r="E15">
-        <v>8.21864120284028</v>
+        <v>8.173011862347686</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>18.48364948833727</v>
+        <v>18.87835904299153</v>
       </c>
       <c r="H15">
-        <v>6.692546651523745</v>
+        <v>6.698208340089479</v>
       </c>
       <c r="I15">
-        <v>3.116011891467227</v>
+        <v>3.115294843127004</v>
       </c>
       <c r="J15">
-        <v>7.85541518480349</v>
+        <v>7.858547981861462</v>
       </c>
       <c r="K15">
-        <v>10.53355871502002</v>
+        <v>10.39189763303781</v>
       </c>
       <c r="L15">
-        <v>5.968580702008939</v>
+        <v>9.466588729467649</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.915426440684782</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.948869495806997</v>
       </c>
       <c r="O15">
-        <v>16.88274635364727</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.40011112233387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.93101503086172</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.06685164805727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.8607141403334</v>
+        <v>25.85517458673043</v>
       </c>
       <c r="C16">
-        <v>18.85557689305609</v>
+        <v>19.01360917559666</v>
       </c>
       <c r="D16">
-        <v>8.923517431075553</v>
+        <v>8.90682251642696</v>
       </c>
       <c r="E16">
-        <v>8.238295532845642</v>
+        <v>8.206041972852596</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>18.42325141093508</v>
+        <v>18.04304407877164</v>
       </c>
       <c r="H16">
-        <v>6.484904690424502</v>
+        <v>6.488638786698579</v>
       </c>
       <c r="I16">
-        <v>3.015061129865794</v>
+        <v>3.029929576905338</v>
       </c>
       <c r="J16">
-        <v>7.921496426999005</v>
+        <v>8.186105065500003</v>
       </c>
       <c r="K16">
-        <v>10.76365088282095</v>
+        <v>10.63241776879365</v>
       </c>
       <c r="L16">
-        <v>5.9160484955593</v>
+        <v>9.588775392422381</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.108334254064204</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.903277137786931</v>
       </c>
       <c r="O16">
-        <v>16.45219881339528</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.47318518621674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.50438905051903</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.26118139293367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.26098176164388</v>
+        <v>25.25760084777174</v>
       </c>
       <c r="C17">
-        <v>18.51451372807978</v>
+        <v>18.71035628385722</v>
       </c>
       <c r="D17">
-        <v>9.169311754304514</v>
+        <v>9.154113547165551</v>
       </c>
       <c r="E17">
-        <v>8.451045482071331</v>
+        <v>8.423828505416489</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>19.01509795284454</v>
+        <v>18.27807185646775</v>
       </c>
       <c r="H17">
-        <v>5.743847277139756</v>
+        <v>5.746625342922732</v>
       </c>
       <c r="I17">
-        <v>2.959329869858467</v>
+        <v>2.982533385320311</v>
       </c>
       <c r="J17">
-        <v>8.06075350868805</v>
+        <v>8.428633289708941</v>
       </c>
       <c r="K17">
-        <v>10.9930925861293</v>
+        <v>10.84436137629144</v>
       </c>
       <c r="L17">
-        <v>5.806627862813796</v>
+        <v>9.71008488570471</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.288972032860614</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.796731996041793</v>
       </c>
       <c r="O17">
-        <v>16.48780538987948</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.77249744729146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.54769226738554</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.58720356437853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80928050096311</v>
+        <v>24.80415559668667</v>
       </c>
       <c r="C18">
-        <v>18.30357498033622</v>
+        <v>18.57348595107239</v>
       </c>
       <c r="D18">
-        <v>9.727448138500561</v>
+        <v>9.711071727102212</v>
       </c>
       <c r="E18">
-        <v>8.997808203713319</v>
+        <v>8.969023095700594</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>20.2673107977957</v>
+        <v>19.31800212023789</v>
       </c>
       <c r="H18">
-        <v>4.476540683369248</v>
+        <v>4.47930851385672</v>
       </c>
       <c r="I18">
-        <v>2.93413215578723</v>
+        <v>2.959585630999824</v>
       </c>
       <c r="J18">
-        <v>8.28654024665304</v>
+        <v>8.677807945847482</v>
       </c>
       <c r="K18">
-        <v>11.2789786344261</v>
+        <v>11.08799619987161</v>
       </c>
       <c r="L18">
-        <v>5.705117730150047</v>
+        <v>9.866806999684924</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.500613210136841</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.694960458384602</v>
       </c>
       <c r="O18">
-        <v>16.92636113423989</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.31788443322059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.00018347369018</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.10424460896138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.51504777354222</v>
+        <v>24.50511571236665</v>
       </c>
       <c r="C19">
-        <v>18.28036609003864</v>
+        <v>18.64961523316175</v>
       </c>
       <c r="D19">
-        <v>10.50000622265799</v>
+        <v>10.48039073353576</v>
       </c>
       <c r="E19">
-        <v>9.938731956982121</v>
+        <v>9.903296153182296</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21.87420929079629</v>
+        <v>20.77512357728947</v>
       </c>
       <c r="H19">
-        <v>2.953242412602349</v>
+        <v>2.957609676212881</v>
       </c>
       <c r="I19">
-        <v>2.946186019634468</v>
+        <v>2.971210605024459</v>
       </c>
       <c r="J19">
-        <v>8.556932939565327</v>
+        <v>8.92727246641522</v>
       </c>
       <c r="K19">
-        <v>11.60294445020223</v>
+        <v>11.34961313589605</v>
       </c>
       <c r="L19">
-        <v>5.723338870614265</v>
+        <v>10.04512053616081</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.731332728501857</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.709929580949707</v>
       </c>
       <c r="O19">
-        <v>17.65671756857429</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.99565202301118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.74860016507584</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.72049250220648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.69304827341679</v>
+        <v>24.66981350028816</v>
       </c>
       <c r="C20">
-        <v>18.66829886857189</v>
+        <v>19.20391712138818</v>
       </c>
       <c r="D20">
-        <v>11.81824006737947</v>
+        <v>11.7901191703848</v>
       </c>
       <c r="E20">
-        <v>11.77447259502617</v>
+        <v>11.72090864249841</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.52724585677413</v>
+        <v>23.44264487760966</v>
       </c>
       <c r="H20">
-        <v>1.886979412062312</v>
+        <v>1.870051915387303</v>
       </c>
       <c r="I20">
-        <v>3.045786626302156</v>
+        <v>3.058786995867271</v>
       </c>
       <c r="J20">
-        <v>8.967030888364553</v>
+        <v>9.171999728617624</v>
       </c>
       <c r="K20">
-        <v>12.04974778190143</v>
+        <v>11.66314185425666</v>
       </c>
       <c r="L20">
-        <v>6.044948844569998</v>
+        <v>10.25053975451886</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.05977560809047</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.020719202814877</v>
       </c>
       <c r="O20">
-        <v>19.11975140439642</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.0763517615637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.2403371867992</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.64389027102052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.13187899996541</v>
+        <v>26.09368339861494</v>
       </c>
       <c r="C21">
-        <v>19.723019043853</v>
+        <v>20.2622838196053</v>
       </c>
       <c r="D21">
-        <v>12.35183678712611</v>
+        <v>12.31457586393397</v>
       </c>
       <c r="E21">
-        <v>12.27156435164645</v>
+        <v>12.19631642265858</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.47607753919005</v>
+        <v>25.98044192124487</v>
       </c>
       <c r="H21">
-        <v>2.178387593954887</v>
+        <v>2.138105080389083</v>
       </c>
       <c r="I21">
-        <v>3.242753816428598</v>
+        <v>3.22571536594796</v>
       </c>
       <c r="J21">
-        <v>9.012472350839417</v>
+        <v>8.429491893756575</v>
       </c>
       <c r="K21">
-        <v>11.84227285195575</v>
+        <v>11.29634815467518</v>
       </c>
       <c r="L21">
-        <v>6.168580239812319</v>
+        <v>9.97003554035722</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.909333889580132</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.129455808342151</v>
       </c>
       <c r="O21">
-        <v>20.23515350181042</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.3434912243226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.35255698149008</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.57961870401926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.04501427902938</v>
+        <v>26.99791927670549</v>
       </c>
       <c r="C22">
-        <v>20.34630894350174</v>
+        <v>20.87548925560178</v>
       </c>
       <c r="D22">
-        <v>12.6390273193512</v>
+        <v>12.59663403894014</v>
       </c>
       <c r="E22">
-        <v>12.50366271060777</v>
+        <v>12.41593599089318</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.04079979371764</v>
+        <v>27.68716616395571</v>
       </c>
       <c r="H22">
-        <v>2.359629387283955</v>
+        <v>2.304593433498589</v>
       </c>
       <c r="I22">
-        <v>3.363902160247402</v>
+        <v>3.326560576713792</v>
       </c>
       <c r="J22">
-        <v>9.036588696312183</v>
+        <v>7.958143552933045</v>
       </c>
       <c r="K22">
-        <v>11.70614174596527</v>
+        <v>11.04716773150033</v>
       </c>
       <c r="L22">
-        <v>6.227666094299271</v>
+        <v>9.789783955591401</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.814117520949445</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.179558902072949</v>
       </c>
       <c r="O22">
-        <v>20.87756836565351</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.50065016903222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.9903434075041</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.50549866250585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.56357703555012</v>
+        <v>26.52100243649171</v>
       </c>
       <c r="C23">
-        <v>19.97950281914393</v>
+        <v>20.52751517618704</v>
       </c>
       <c r="D23">
-        <v>12.48758391103208</v>
+        <v>12.44786833609931</v>
       </c>
       <c r="E23">
-        <v>12.38255124714322</v>
+        <v>12.30160587992378</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.79073623881822</v>
+        <v>26.6360250931532</v>
       </c>
       <c r="H23">
-        <v>2.263730954803601</v>
+        <v>2.217426159380051</v>
       </c>
       <c r="I23">
-        <v>3.29565494444163</v>
+        <v>3.268578462335645</v>
       </c>
       <c r="J23">
-        <v>9.032921242024512</v>
+        <v>8.284132359129575</v>
       </c>
       <c r="K23">
-        <v>11.79786937582743</v>
+        <v>11.20967804674828</v>
       </c>
       <c r="L23">
-        <v>6.197119394662912</v>
+        <v>9.901748715062965</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.894004191490175</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.154159443584104</v>
       </c>
       <c r="O23">
-        <v>20.5305142496511</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.43926555860894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.64817128313656</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.59621864641587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.65239247089851</v>
+        <v>24.62863118396979</v>
       </c>
       <c r="C24">
-        <v>18.59578621321377</v>
+        <v>19.14259753120689</v>
       </c>
       <c r="D24">
-        <v>11.90058174569457</v>
+        <v>11.87208234734059</v>
       </c>
       <c r="E24">
-        <v>11.91074558258081</v>
+        <v>11.8564869886413</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.77764578449382</v>
+        <v>23.66466069558194</v>
       </c>
       <c r="H24">
-        <v>1.89249126072601</v>
+        <v>1.875482508456335</v>
       </c>
       <c r="I24">
-        <v>3.039229535569268</v>
+        <v>3.050145604936208</v>
       </c>
       <c r="J24">
-        <v>9.012797378869621</v>
+        <v>9.218475663959708</v>
       </c>
       <c r="K24">
-        <v>12.12659668855251</v>
+        <v>11.72840313149556</v>
       </c>
       <c r="L24">
-        <v>6.077694272844381</v>
+        <v>10.29470921124629</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.11675500156376</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.053040589621612</v>
       </c>
       <c r="O24">
-        <v>19.17462897073409</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.18732248206698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.29744085193099</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.74801223226069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.4087935298309</v>
+        <v>22.40768155237898</v>
       </c>
       <c r="C25">
-        <v>16.99023327359163</v>
+        <v>17.38117782283658</v>
       </c>
       <c r="D25">
-        <v>11.24547996937707</v>
+        <v>11.22926959357475</v>
       </c>
       <c r="E25">
-        <v>11.38300300463449</v>
+        <v>11.35483681092863</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.72628863664522</v>
+        <v>22.59685572335402</v>
       </c>
       <c r="H25">
-        <v>1.647497348503262</v>
+        <v>1.643863440507913</v>
       </c>
       <c r="I25">
-        <v>2.755187409765343</v>
+        <v>2.798418500974716</v>
       </c>
       <c r="J25">
-        <v>9.010130837295147</v>
+        <v>9.285922989637511</v>
       </c>
       <c r="K25">
-        <v>12.50830791453621</v>
+        <v>12.15461239031154</v>
       </c>
       <c r="L25">
-        <v>5.943757004540617</v>
+        <v>10.65395686247761</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.29552084910795</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.933736441901232</v>
       </c>
       <c r="O25">
-        <v>17.60238547279726</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.95348422541626</v>
+        <v>17.7043293764762</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.61577253143224</v>
       </c>
     </row>
   </sheetData>
